--- a/sig_friction_analise_boxplot.xlsx
+++ b/sig_friction_analise_boxplot.xlsx
@@ -181,9 +181,6 @@
     <t>Média</t>
   </si>
   <si>
-    <t>DP</t>
-  </si>
-  <si>
     <t>MinimoNO</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Maximo</t>
+  </si>
+  <si>
+    <t>Erro Padrão</t>
   </si>
 </sst>
 </file>
@@ -1372,78 +1372,90 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>newfriction_allerrors_experimen!$D$67:$M$67</c:f>
+                <c:f>newfriction_allerrors_experimen!$B$67:$M$67</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
-                    <c:v>109594.54546677106</c:v>
+                    <c:v>34.170638062207068</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6730.253378863561</c:v>
+                    <c:v>13.906427068578262</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3539.7100958378578</c:v>
+                    <c:v>20.93571324838862</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2565.5720850519488</c:v>
+                    <c:v>4.9985625170298418</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3897.6959308479231</c:v>
+                    <c:v>3.15264553303783</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1371.5002383245794</c:v>
+                    <c:v>2.4244064388553217</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4401.7323690225794</c:v>
+                    <c:v>2.9004288879655178</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>300.32795081786742</c:v>
+                    <c:v>1.5156911632127221</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>250.06284408592796</c:v>
+                    <c:v>3.5541124636145653</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>140.82318095766584</c:v>
+                    <c:v>0.58755714413476767</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.50513143921591941</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.32077433905825675</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>newfriction_allerrors_experimen!$D$67:$M$67</c:f>
+                <c:f>newfriction_allerrors_experimen!$B$67:$M$67</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="12"/>
                   <c:pt idx="0">
-                    <c:v>109594.54546677106</c:v>
+                    <c:v>34.170638062207068</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6730.253378863561</c:v>
+                    <c:v>13.906427068578262</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3539.7100958378578</c:v>
+                    <c:v>20.93571324838862</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2565.5720850519488</c:v>
+                    <c:v>4.9985625170298418</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3897.6959308479231</c:v>
+                    <c:v>3.15264553303783</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1371.5002383245794</c:v>
+                    <c:v>2.4244064388553217</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4401.7323690225794</c:v>
+                    <c:v>2.9004288879655178</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>300.32795081786742</c:v>
+                    <c:v>1.5156911632127221</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>250.06284408592796</c:v>
+                    <c:v>3.5541124636145653</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>140.82318095766584</c:v>
+                    <c:v>0.58755714413476767</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.50513143921591941</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.32077433905825675</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1464,38 +1476,44 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>newfriction_allerrors_experimen!$D$15:$M$15</c:f>
+              <c:f>newfriction_allerrors_experimen!$B$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1503,39 +1521,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>newfriction_allerrors_experimen!$D$66:$M$66</c:f>
+              <c:f>newfriction_allerrors_experimen!$B$66:$M$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30240.319189515034</c:v>
+                  <c:v>304.85591797830193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3120.5874502405404</c:v>
+                  <c:v>76.157407359611994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1871.0668030673603</c:v>
+                  <c:v>88.807717228493999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1462.9121647096595</c:v>
+                  <c:v>42.968831275373994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1701.8293943422198</c:v>
+                  <c:v>36.934657658626001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1081.0074168863</c:v>
+                  <c:v>34.104942297165998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2003.5093986905395</c:v>
+                  <c:v>35.676217847513996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>953.44252049817965</c:v>
+                  <c:v>31.045838884986004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>942.49428973936006</c:v>
+                  <c:v>36.868576228103997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>928.10403948694045</c:v>
+                  <c:v>30.591438789624011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.487394828413997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.378550565825993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145330192"/>
-        <c:axId val="145330584"/>
+        <c:axId val="114433536"/>
+        <c:axId val="114432752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145330192"/>
+        <c:axId val="114433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,7 +1623,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145330584"/>
+        <c:crossAx val="114432752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1607,7 +1631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145330584"/>
+        <c:axId val="114432752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1682,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145330192"/>
+        <c:crossAx val="114433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1815,34 +1839,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>148.29301937225</c:v>
+                    <c:v>2.9697779787500025</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>302.98527682575002</c:v>
+                    <c:v>5.9905311780250017</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>225.39654495800005</c:v>
+                    <c:v>4.3507663639</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>129.40554080200002</c:v>
+                    <c:v>2.4514093129750023</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>147.61618175549995</c:v>
+                    <c:v>2.763643758249998</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>144.14628150975</c:v>
+                    <c:v>2.7837120918500027</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>175.89557521175004</c:v>
+                    <c:v>3.2795830350999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>197.97691719549994</c:v>
+                    <c:v>3.736956607699998</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>206.56732608350001</c:v>
+                    <c:v>3.8937555488749993</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>110.27177789125005</c:v>
+                    <c:v>1.9815614646749964</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1904,31 +1928,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>799.90832166675</c:v>
+                  <c:v>28.282301965525001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>788.34439850300009</c:v>
+                  <c:v>28.077288518300001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>762.84446117900006</c:v>
+                  <c:v>27.619621811575001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>788.64647649450001</c:v>
+                  <c:v>28.082219838649998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>744.29633797174995</c:v>
+                  <c:v>27.281672342850001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>809.70595566375005</c:v>
+                  <c:v>28.4551740004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>804.14969862149997</c:v>
+                  <c:v>28.357532990599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>810.67057815550004</c:v>
+                  <c:v>28.472267547575001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>830.29992122725002</c:v>
+                  <c:v>28.814901609674997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,31 +2016,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>111.77958625475003</c:v>
+                  <c:v>1.9118383466749975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.818233271499935</c:v>
+                  <c:v>1.3702494799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.65286000749995</c:v>
+                  <c:v>2.4531843493750003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.51511257350001</c:v>
+                  <c:v>2.4815097289500017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.859137571750011</c:v>
+                  <c:v>1.4435206887999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.996009060249889</c:v>
+                  <c:v>1.3726847966499989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.09362732750003</c:v>
+                  <c:v>1.0233269880000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.36718121399997</c:v>
+                  <c:v>1.6280716711750003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.424099305750019</c:v>
+                  <c:v>0.76082854832500146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,34 +2072,34 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>2346.4310222275003</c:v>
+                    <c:v>23.352458841924999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>799.92766923500039</c:v>
+                    <c:v>7.3682563009000006</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>565.85190189249988</c:v>
+                    <c:v>5.5046558841499973</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>509.40760548499975</c:v>
+                    <c:v>1.9697077305999997</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>229.39579297</c:v>
+                    <c:v>4.5444546618250001</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>393.63327420000041</c:v>
+                    <c:v>5.0992595914249961</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>450.16306555749998</c:v>
+                    <c:v>4.4927486526250036</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>300.34745149500031</c:v>
+                    <c:v>3.1148831251000004</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>134.16357608750013</c:v>
+                    <c:v>1.3607574720750009</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>245.17121996499964</c:v>
+                    <c:v>2.5179413132999926</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2146,31 +2170,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>216.62807238599999</c:v>
+                  <c:v>3.3961727483500042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>337.09064223550001</c:v>
+                  <c:v>5.2547549112249961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146.47276434349999</c:v>
+                  <c:v>2.3458084543499993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295.00037261450007</c:v>
+                  <c:v>4.4956763652000049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181.62239104225</c:v>
+                  <c:v>2.9986429549750007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.97297668375006</c:v>
+                  <c:v>1.915165747475001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138.66034798875</c:v>
+                  <c:v>2.2719406608499995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>126.41809417550007</c:v>
+                  <c:v>2.0315083575249986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.79251143925001</c:v>
+                  <c:v>2.0392852965750023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,8 +2210,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="146793216"/>
-        <c:axId val="146786552"/>
+        <c:axId val="223308024"/>
+        <c:axId val="223298224"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2200,8 +2224,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146793216"/>
-        <c:axId val="146786552"/>
+        <c:axId val="223308024"/>
+        <c:axId val="223298224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2242,36 +2266,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1592.6652230100001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2316,36 +2310,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1624.7850976300001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2390,36 +2354,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>6476.0057105400001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4157.9859653800004</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5187.2466433099999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4035.0299238600001</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2719.4936530599998</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2868.6045933400001</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4270.8333419800001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3375.1936313400001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3003.7551806699998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>2786.0257615700002</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2468,36 +2402,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>9790.7045527999999</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5174.4824376500001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>25650.222835699999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6197.1090736100005</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4970.8762064700004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3120.3595634399999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5765.3906780300003</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>3772.3212925500002</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3491.0673630599999</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>3561.8383078799998</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2546,36 +2450,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>10752.4830172</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5394.6254270099998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>47754.768022999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11848.107954999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6205.8973691499996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3207.9624259699999</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6461.2707964600004</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>14303.8778533</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2624,36 +2498,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>11915.172808900001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9046.2832930200002</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>54460.110892800003</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>29887.291904000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4478.6991683099995</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>20765.835622300001</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2702,36 +2546,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>19862.452602900001</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10042.086291600001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6054.7940587599996</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2780,36 +2594,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>23742.298367300002</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10157.413406899999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2858,36 +2642,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>59378.814465299998</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14456.016172</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2938,36 +2692,6 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="10"/>
-                      <c:pt idx="0">
-                        <c:v>85903.176497199995</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>21308.430395700001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>#N/A</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
@@ -2978,7 +2702,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="146793216"/>
+        <c:axId val="223308024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,7 +2801,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146786552"/>
+        <c:crossAx val="223298224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3085,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146786552"/>
+        <c:axId val="223298224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +2916,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146793216"/>
+        <c:crossAx val="223308024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,369 +4125,42 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="allerrors_experiment_results_ra"/>
-      <sheetName val="Outliers"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="69">
-          <cell r="D69">
-            <v>6</v>
-          </cell>
-        </row>
         <row r="83">
           <cell r="D83">
-            <v>2346.4310222275003</v>
+            <v>23.352458841924999</v>
           </cell>
           <cell r="E83">
-            <v>799.92766923500039</v>
+            <v>7.3682563009000006</v>
           </cell>
           <cell r="F83">
-            <v>565.85190189249988</v>
+            <v>5.5046558841499973</v>
           </cell>
           <cell r="G83">
-            <v>509.40760548499975</v>
+            <v>1.9697077305999997</v>
           </cell>
           <cell r="H83">
-            <v>229.39579297</v>
+            <v>4.5444546618250001</v>
           </cell>
           <cell r="I83">
-            <v>393.63327420000041</v>
+            <v>5.0992595914249961</v>
           </cell>
           <cell r="J83">
-            <v>450.16306555749998</v>
+            <v>4.4927486526250036</v>
           </cell>
           <cell r="K83">
-            <v>300.34745149500031</v>
+            <v>3.1148831251000004</v>
           </cell>
           <cell r="L83">
-            <v>134.16357608750013</v>
+            <v>1.3607574720750009</v>
           </cell>
           <cell r="M83">
-            <v>245.17121996499964</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="D85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K85">
-            <v>1592.6652230100001</v>
-          </cell>
-          <cell r="L85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M85" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="D86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K86">
-            <v>1624.7850976300001</v>
-          </cell>
-          <cell r="L86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M86" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="D88">
-            <v>6476.0057105400001</v>
-          </cell>
-          <cell r="E88">
-            <v>4157.9859653800004</v>
-          </cell>
-          <cell r="F88">
-            <v>5187.2466433099999</v>
-          </cell>
-          <cell r="G88">
-            <v>4035.0299238600001</v>
-          </cell>
-          <cell r="H88">
-            <v>2719.4936530599998</v>
-          </cell>
-          <cell r="I88">
-            <v>2868.6045933400001</v>
-          </cell>
-          <cell r="J88">
-            <v>4270.8333419800001</v>
-          </cell>
-          <cell r="K88">
-            <v>3375.1936313400001</v>
-          </cell>
-          <cell r="L88">
-            <v>3003.7551806699998</v>
-          </cell>
-          <cell r="M88">
-            <v>2786.0257615700002</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="D89">
-            <v>9790.7045527999999</v>
-          </cell>
-          <cell r="E89">
-            <v>5174.4824376500001</v>
-          </cell>
-          <cell r="F89">
-            <v>25650.222835699999</v>
-          </cell>
-          <cell r="G89">
-            <v>6197.1090736100005</v>
-          </cell>
-          <cell r="H89">
-            <v>4970.8762064700004</v>
-          </cell>
-          <cell r="I89">
-            <v>3120.3595634399999</v>
-          </cell>
-          <cell r="J89">
-            <v>5765.3906780300003</v>
-          </cell>
-          <cell r="K89">
-            <v>3772.3212925500002</v>
-          </cell>
-          <cell r="L89">
-            <v>3491.0673630599999</v>
-          </cell>
-          <cell r="M89">
-            <v>3561.8383078799998</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="D90">
-            <v>10752.4830172</v>
-          </cell>
-          <cell r="E90">
-            <v>5394.6254270099998</v>
-          </cell>
-          <cell r="F90">
-            <v>47754.768022999997</v>
-          </cell>
-          <cell r="G90">
-            <v>11848.107954999999</v>
-          </cell>
-          <cell r="H90">
-            <v>6205.8973691499996</v>
-          </cell>
-          <cell r="I90">
-            <v>3207.9624259699999</v>
-          </cell>
-          <cell r="J90">
-            <v>6461.2707964600004</v>
-          </cell>
-          <cell r="K90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M90">
-            <v>14303.8778533</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="D91">
-            <v>11915.172808900001</v>
-          </cell>
-          <cell r="E91">
-            <v>9046.2832930200002</v>
-          </cell>
-          <cell r="F91">
-            <v>54460.110892800003</v>
-          </cell>
-          <cell r="G91">
-            <v>29887.291904000002</v>
-          </cell>
-          <cell r="H91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I91">
-            <v>4478.6991683099995</v>
-          </cell>
-          <cell r="J91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M91">
-            <v>20765.835622300001</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="D92">
-            <v>19862.452602900001</v>
-          </cell>
-          <cell r="E92">
-            <v>10042.086291600001</v>
-          </cell>
-          <cell r="F92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I92">
-            <v>6054.7940587599996</v>
-          </cell>
-          <cell r="J92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M92" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="D93">
-            <v>23742.298367300002</v>
-          </cell>
-          <cell r="E93">
-            <v>10157.413406899999</v>
-          </cell>
-          <cell r="F93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M93" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="D94">
-            <v>59378.814465299998</v>
-          </cell>
-          <cell r="E94">
-            <v>14456.016172</v>
-          </cell>
-          <cell r="F94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M94" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="D95">
-            <v>85903.176497199995</v>
-          </cell>
-          <cell r="E95">
-            <v>21308.430395700001</v>
-          </cell>
-          <cell r="F95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="I95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="J95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="K95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="L95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="M95" t="e">
-            <v>#N/A</v>
+            <v>2.5179413132999926</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5034,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,154 +4600,154 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6800.44261302</v>
+        <v>82.464796204300001</v>
       </c>
       <c r="C2">
-        <v>190288.65984000001</v>
+        <v>436.220884232</v>
       </c>
       <c r="D2">
-        <v>1185.14643826</v>
+        <v>34.425955880099998</v>
       </c>
       <c r="E2">
-        <v>24234.931211499999</v>
+        <v>155.67572454099999</v>
       </c>
       <c r="F2">
-        <v>948.96192933600003</v>
+        <v>30.805225682300001</v>
       </c>
       <c r="G2">
-        <v>121708.111661</v>
+        <v>348.86689676899999</v>
       </c>
       <c r="H2">
-        <v>726.10177308300001</v>
+        <v>26.946275681100001</v>
       </c>
       <c r="I2">
-        <v>89605.422491100006</v>
+        <v>299.34164844100002</v>
       </c>
       <c r="J2">
-        <v>327839.38998099999</v>
+        <v>572.57260673300004</v>
       </c>
       <c r="K2">
-        <v>18405.7688939</v>
+        <v>135.667862421</v>
       </c>
       <c r="L2">
-        <v>183591.752664</v>
+        <v>428.47608178799999</v>
       </c>
       <c r="M2">
-        <v>2024.68932589</v>
+        <v>44.996547933000002</v>
       </c>
       <c r="N2">
-        <v>319409.49236700003</v>
+        <v>565.16324399899997</v>
       </c>
       <c r="O2">
-        <v>3090.2280059999998</v>
+        <v>55.589819265800003</v>
       </c>
       <c r="P2">
-        <v>175575.71812599999</v>
+        <v>419.01756302799998</v>
       </c>
       <c r="Q2">
-        <v>225467.92221600001</v>
+        <v>474.83462617599997</v>
       </c>
       <c r="R2">
-        <v>16100.644075</v>
+        <v>126.88831338999999</v>
       </c>
       <c r="S2">
-        <v>120204.74738099999</v>
+        <v>346.70556295099999</v>
       </c>
       <c r="T2">
-        <v>260221.15647399999</v>
+        <v>510.11876702799998</v>
       </c>
       <c r="U2">
-        <v>435136.88289800001</v>
+        <v>659.64906040899996</v>
       </c>
       <c r="V2">
-        <v>37381.514981200002</v>
+        <v>193.34299827300001</v>
       </c>
       <c r="W2">
-        <v>23397.464086</v>
+        <v>152.96229628899999</v>
       </c>
       <c r="X2">
-        <v>501666.708094</v>
+        <v>708.28434127399998</v>
       </c>
       <c r="Y2">
-        <v>410499.455793</v>
+        <v>640.70231449000005</v>
       </c>
       <c r="Z2">
-        <v>419510.31238600001</v>
+        <v>647.69615745800002</v>
       </c>
       <c r="AA2">
-        <v>86263.661361599996</v>
+        <v>293.70676083699999</v>
       </c>
       <c r="AB2">
-        <v>5671.0419582599998</v>
+        <v>75.306320838700003</v>
       </c>
       <c r="AC2">
-        <v>362444.77436799998</v>
+        <v>602.03386480200004</v>
       </c>
       <c r="AD2">
-        <v>7028.0858846900001</v>
+        <v>83.833679894699998</v>
       </c>
       <c r="AE2">
-        <v>20987.811318700002</v>
+        <v>144.87170641200001</v>
       </c>
       <c r="AF2">
-        <v>19446.139981200002</v>
+        <v>139.44941728500001</v>
       </c>
       <c r="AG2">
-        <v>278886.15689400001</v>
+        <v>528.096730622</v>
       </c>
       <c r="AH2">
-        <v>1593.85904706</v>
+        <v>39.923164291699997</v>
       </c>
       <c r="AI2">
-        <v>20082.014675300001</v>
+        <v>141.71102524299999</v>
       </c>
       <c r="AJ2">
-        <v>397490.00482999999</v>
+        <v>630.46808391100001</v>
       </c>
       <c r="AK2">
-        <v>16072.190462</v>
+        <v>126.776143111</v>
       </c>
       <c r="AL2">
-        <v>319843.51557799999</v>
+        <v>565.54709404100004</v>
       </c>
       <c r="AM2">
-        <v>48259.700667600002</v>
+        <v>219.68090647</v>
       </c>
       <c r="AN2">
-        <v>1395.6783910199999</v>
+        <v>37.3587793031</v>
       </c>
       <c r="AO2">
-        <v>465140.80693000002</v>
+        <v>682.01232168499996</v>
       </c>
       <c r="AP2">
-        <v>13620.2386307</v>
+        <v>116.705778052</v>
       </c>
       <c r="AQ2">
-        <v>561.91159691200005</v>
+        <v>23.704674579300001</v>
       </c>
       <c r="AR2">
-        <v>1340.49376542</v>
+        <v>36.612754136</v>
       </c>
       <c r="AS2">
-        <v>471128.86164900003</v>
+        <v>686.38827324600004</v>
       </c>
       <c r="AT2">
-        <v>2951.3148958400002</v>
+        <v>54.326005704799996</v>
       </c>
       <c r="AU2">
-        <v>176992.02457800001</v>
+        <v>420.70420080899999</v>
       </c>
       <c r="AV2">
-        <v>479244.16713299998</v>
+        <v>692.27463273800004</v>
       </c>
       <c r="AW2">
-        <v>4216.9029422699996</v>
+        <v>64.937685070200004</v>
       </c>
       <c r="AX2">
-        <v>688.84738496700004</v>
+        <v>26.245902251</v>
       </c>
       <c r="AY2">
-        <v>507947.59491300001</v>
+        <v>712.70442324500004</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -5358,154 +4755,154 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>24649.7397581</v>
+        <v>157.0023559</v>
       </c>
       <c r="C3">
-        <v>12839.169829300001</v>
+        <v>113.31006058299999</v>
       </c>
       <c r="D3">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="E3">
-        <v>618.51668667499996</v>
+        <v>24.869995711200001</v>
       </c>
       <c r="F3">
-        <v>38171.594752500001</v>
+        <v>195.375522399</v>
       </c>
       <c r="G3">
-        <v>493.42807171300001</v>
+        <v>22.213240909700001</v>
       </c>
       <c r="H3">
-        <v>564.88544892699997</v>
+        <v>23.7673189259</v>
       </c>
       <c r="I3">
-        <v>920.27511812199998</v>
+        <v>30.3360366251</v>
       </c>
       <c r="J3">
-        <v>10686.205306399999</v>
+        <v>103.374103655</v>
       </c>
       <c r="K3">
-        <v>5325.6172241000004</v>
+        <v>72.976826623899996</v>
       </c>
       <c r="L3">
-        <v>583.662225595</v>
+        <v>24.1591023342</v>
       </c>
       <c r="M3">
-        <v>14685.5910883</v>
+        <v>121.184120611</v>
       </c>
       <c r="N3">
-        <v>927.00214342200002</v>
+        <v>30.4467098949</v>
       </c>
       <c r="O3">
-        <v>3809.2144142400002</v>
+        <v>61.718833545700001</v>
       </c>
       <c r="P3">
-        <v>1210.87404838</v>
+        <v>34.797615555999997</v>
       </c>
       <c r="Q3">
-        <v>12309.496836099999</v>
+        <v>110.948171847</v>
       </c>
       <c r="R3">
-        <v>908.51224971399995</v>
+        <v>30.141536950100001</v>
       </c>
       <c r="S3">
-        <v>974.68311705500003</v>
+        <v>31.219915391499999</v>
       </c>
       <c r="T3">
-        <v>778.48604072399996</v>
+        <v>27.901362703699998</v>
       </c>
       <c r="U3">
-        <v>858.44006601000001</v>
+        <v>29.299147871700001</v>
       </c>
       <c r="V3">
-        <v>34294.447029399998</v>
+        <v>185.18759955600001</v>
       </c>
       <c r="W3">
-        <v>19120.632055800001</v>
+        <v>138.277373622</v>
       </c>
       <c r="X3">
-        <v>630.89824579499998</v>
+        <v>25.117687907000001</v>
       </c>
       <c r="Y3">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="Z3">
-        <v>786.36219634099996</v>
+        <v>28.0421503516</v>
       </c>
       <c r="AA3">
-        <v>675.59314070400001</v>
+        <v>25.992174605100001</v>
       </c>
       <c r="AB3">
-        <v>882.59840938699995</v>
+        <v>29.708557847600002</v>
       </c>
       <c r="AC3">
-        <v>1096.54895943</v>
+        <v>33.114180639600001</v>
       </c>
       <c r="AD3">
-        <v>2274.6513468600001</v>
+        <v>47.6933050528</v>
       </c>
       <c r="AE3">
-        <v>3510.1109483300002</v>
+        <v>59.246189314799999</v>
       </c>
       <c r="AF3">
-        <v>50100.872557000002</v>
+        <v>223.83224199599999</v>
       </c>
       <c r="AG3">
-        <v>6490.0328515199999</v>
+        <v>80.560740137600007</v>
       </c>
       <c r="AH3">
-        <v>540.55752425799994</v>
+        <v>23.249892994500001</v>
       </c>
       <c r="AI3">
-        <v>3008.0733968</v>
+        <v>54.8459059256</v>
       </c>
       <c r="AJ3">
-        <v>2145.79264298</v>
+        <v>46.322701162400001</v>
       </c>
       <c r="AK3">
-        <v>607.35836150800003</v>
+        <v>24.644641638900001</v>
       </c>
       <c r="AL3">
-        <v>476.989300872</v>
+        <v>21.840084726800001</v>
       </c>
       <c r="AM3">
-        <v>12268.1271626</v>
+        <v>110.761578007</v>
       </c>
       <c r="AN3">
-        <v>7984.8875427200001</v>
+        <v>89.358197960300004</v>
       </c>
       <c r="AO3">
-        <v>920.24900794899997</v>
+        <v>30.335606273</v>
       </c>
       <c r="AP3">
-        <v>2833.6209898299999</v>
+        <v>53.231766735900003</v>
       </c>
       <c r="AQ3">
-        <v>511.37584016</v>
+        <v>22.6136206778</v>
       </c>
       <c r="AR3">
-        <v>726.23600284500003</v>
+        <v>26.948766258300001</v>
       </c>
       <c r="AS3">
-        <v>761.58642127600001</v>
+        <v>27.596855278700001</v>
       </c>
       <c r="AT3">
-        <v>571.03008269700001</v>
+        <v>23.8962357433</v>
       </c>
       <c r="AU3">
-        <v>718.140265322</v>
+        <v>26.798139213799999</v>
       </c>
       <c r="AV3">
-        <v>179387.08570699999</v>
+        <v>423.54112634699999</v>
       </c>
       <c r="AW3">
-        <v>508.86612587000002</v>
+        <v>22.558061216999999</v>
       </c>
       <c r="AX3">
-        <v>687.81708303200003</v>
+        <v>26.2262670434</v>
       </c>
       <c r="AY3">
-        <v>314840.165003</v>
+        <v>561.10619761600003</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -5513,154 +4910,154 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>583.41500067499999</v>
+        <v>24.1539851924</v>
       </c>
       <c r="C4">
-        <v>5636.6885153800004</v>
+        <v>75.077882997499998</v>
       </c>
       <c r="D4">
-        <v>2162.20958999</v>
+        <v>46.499565481700003</v>
       </c>
       <c r="E4">
-        <v>551.38551338699995</v>
+        <v>23.481599463999999</v>
       </c>
       <c r="F4">
-        <v>2482.0708050399999</v>
+        <v>49.820385436499997</v>
       </c>
       <c r="G4">
-        <v>12449.8306214</v>
+        <v>111.57880901599999</v>
       </c>
       <c r="H4">
-        <v>905.00263847199994</v>
+        <v>30.0832617658</v>
       </c>
       <c r="I4">
-        <v>2169.6048432600001</v>
+        <v>46.579017199399999</v>
       </c>
       <c r="J4">
-        <v>1229.61830095</v>
+        <v>35.065913662</v>
       </c>
       <c r="K4">
-        <v>40190.6520122</v>
+        <v>200.47606343999999</v>
       </c>
       <c r="L4">
-        <v>819.83695653200004</v>
+        <v>28.632795122600001</v>
       </c>
       <c r="M4">
-        <v>1180.7300541100001</v>
+        <v>34.361752779900002</v>
       </c>
       <c r="N4">
-        <v>827.05681222700002</v>
+        <v>28.7585954495</v>
       </c>
       <c r="O4">
-        <v>576.40462438899999</v>
+        <v>24.008428194899999</v>
       </c>
       <c r="P4">
-        <v>589.57626460300003</v>
+        <v>24.281191581200002</v>
       </c>
       <c r="Q4">
-        <v>873.05261599100004</v>
+        <v>29.5474637827</v>
       </c>
       <c r="R4">
-        <v>590002.43706799997</v>
+        <v>768.11616118100005</v>
       </c>
       <c r="S4">
-        <v>831.66328127099996</v>
+        <v>28.8385728023</v>
       </c>
       <c r="T4">
-        <v>775.500378383</v>
+        <v>27.847807425100001</v>
       </c>
       <c r="U4">
-        <v>91857.987355799996</v>
+        <v>303.08082644000001</v>
       </c>
       <c r="V4">
-        <v>93026.393594499998</v>
+        <v>305.002284573</v>
       </c>
       <c r="W4">
-        <v>10729.2960955</v>
+        <v>103.582315554</v>
       </c>
       <c r="X4">
-        <v>761.83824608800001</v>
+        <v>27.601417465200001</v>
       </c>
       <c r="Y4">
-        <v>799.44308324799999</v>
+        <v>28.274424543199999</v>
       </c>
       <c r="Z4">
-        <v>592.56019654700003</v>
+        <v>24.3425593672</v>
       </c>
       <c r="AA4">
-        <v>7844.3083165799999</v>
+        <v>88.5680998813</v>
       </c>
       <c r="AB4">
-        <v>704.83912801099996</v>
+        <v>26.548806527100002</v>
       </c>
       <c r="AC4">
-        <v>611.40114711900003</v>
+        <v>24.726527194900001</v>
       </c>
       <c r="AD4">
-        <v>647.81215728500001</v>
+        <v>25.4521542759</v>
       </c>
       <c r="AE4">
-        <v>7212.1200598400001</v>
+        <v>84.924201849900001</v>
       </c>
       <c r="AF4">
-        <v>1179.38621059</v>
+        <v>34.342192862300003</v>
       </c>
       <c r="AG4">
-        <v>3761.8342077699999</v>
+        <v>61.333793358699999</v>
       </c>
       <c r="AH4">
-        <v>974.05846903300005</v>
+        <v>31.209909788899999</v>
       </c>
       <c r="AI4">
-        <v>537678.87860900001</v>
+        <v>733.26589898099996</v>
       </c>
       <c r="AJ4">
-        <v>932.791470473</v>
+        <v>30.5416350327</v>
       </c>
       <c r="AK4">
-        <v>18704.621415500002</v>
+        <v>136.76483983599999</v>
       </c>
       <c r="AL4">
-        <v>661.15859413999999</v>
+        <v>25.713004377899999</v>
       </c>
       <c r="AM4">
-        <v>9052.0320130399996</v>
+        <v>95.142167376200007</v>
       </c>
       <c r="AN4">
-        <v>964.469509582</v>
+        <v>31.055909414799999</v>
       </c>
       <c r="AO4">
-        <v>709.62417313399999</v>
+        <v>26.638771989999999</v>
       </c>
       <c r="AP4">
-        <v>593.63847929899998</v>
+        <v>24.364697398099999</v>
       </c>
       <c r="AQ4">
-        <v>873.85189580799999</v>
+        <v>29.5609860426</v>
       </c>
       <c r="AR4">
-        <v>697.95833434199994</v>
+        <v>26.4189010813</v>
       </c>
       <c r="AS4">
-        <v>9159.7815225600007</v>
+        <v>95.706747528899996</v>
       </c>
       <c r="AT4">
-        <v>36646.330800999996</v>
+        <v>191.432313889</v>
       </c>
       <c r="AU4">
-        <v>7134.0549463899997</v>
+        <v>84.463334923399998</v>
       </c>
       <c r="AV4">
-        <v>669.23661694700002</v>
+        <v>25.869607978200001</v>
       </c>
       <c r="AW4">
-        <v>571.01920109299999</v>
+        <v>23.896008057700001</v>
       </c>
       <c r="AX4">
-        <v>645.07817890199999</v>
+        <v>25.398389297400001</v>
       </c>
       <c r="AY4">
-        <v>781.41955037100001</v>
+        <v>27.953882563400001</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -5668,154 +5065,154 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>496.92304484099998</v>
+        <v>22.291770787499999</v>
       </c>
       <c r="C5">
-        <v>1055.18700287</v>
+        <v>32.483642081399999</v>
       </c>
       <c r="D5">
-        <v>856.88068565900005</v>
+        <v>29.2725244156</v>
       </c>
       <c r="E5">
-        <v>722.63959247900004</v>
+        <v>26.8819566341</v>
       </c>
       <c r="F5">
-        <v>835.58019589800006</v>
+        <v>28.9064040638</v>
       </c>
       <c r="G5">
-        <v>724.42135395900004</v>
+        <v>26.9150767036</v>
       </c>
       <c r="H5">
-        <v>825.99739515199997</v>
+        <v>28.740170409200001</v>
       </c>
       <c r="I5">
-        <v>7338.2230231800004</v>
+        <v>85.663428738199997</v>
       </c>
       <c r="J5">
-        <v>897.90230405099999</v>
+        <v>29.965018005200001</v>
       </c>
       <c r="K5">
-        <v>2664.1427137400001</v>
+        <v>51.615334095000001</v>
       </c>
       <c r="L5">
-        <v>834.53591662899998</v>
+        <v>28.8883353039</v>
       </c>
       <c r="M5">
-        <v>725.36600886999997</v>
+        <v>26.932619792200001</v>
       </c>
       <c r="N5">
-        <v>928.71479388399996</v>
+        <v>30.474822294500001</v>
       </c>
       <c r="O5">
-        <v>1015.34572021</v>
+        <v>31.8644899568</v>
       </c>
       <c r="P5">
-        <v>693.23215689799997</v>
+        <v>26.329302248600001</v>
       </c>
       <c r="Q5">
-        <v>813.70488977100001</v>
+        <v>28.525512962499999</v>
       </c>
       <c r="R5">
-        <v>1131.52130822</v>
+        <v>33.638093112100002</v>
       </c>
       <c r="S5">
-        <v>1118.6999965699999</v>
+        <v>33.446972905899997</v>
       </c>
       <c r="T5">
-        <v>887.25526974499996</v>
+        <v>29.786830474999999</v>
       </c>
       <c r="U5">
-        <v>4323.7931109900001</v>
+        <v>65.755555742400006</v>
       </c>
       <c r="V5">
-        <v>709.07925213999999</v>
+        <v>26.628542058099999</v>
       </c>
       <c r="W5">
-        <v>813.89155593199996</v>
+        <v>28.528784690799998</v>
       </c>
       <c r="X5">
-        <v>632.31502369299994</v>
+        <v>25.145874884200001</v>
       </c>
       <c r="Y5">
-        <v>930.74809867399995</v>
+        <v>30.508164459300001</v>
       </c>
       <c r="Z5">
-        <v>921.97437445599996</v>
+        <v>30.3640309323</v>
       </c>
       <c r="AA5">
-        <v>664.67484042000001</v>
+        <v>25.781288571800001</v>
       </c>
       <c r="AB5">
-        <v>2087.9900104799999</v>
+        <v>45.694529327700003</v>
       </c>
       <c r="AC5">
-        <v>746.47338900900002</v>
+        <v>27.3216651947</v>
       </c>
       <c r="AD5">
-        <v>2470.66312849</v>
+        <v>49.705765545799999</v>
       </c>
       <c r="AE5">
-        <v>922.80336360499996</v>
+        <v>30.377678706699999</v>
       </c>
       <c r="AF5">
-        <v>951.95717959299998</v>
+        <v>30.853803324600001</v>
       </c>
       <c r="AG5">
-        <v>1084.82980243</v>
+        <v>32.936754582500001</v>
       </c>
       <c r="AH5">
-        <v>690.59167267199996</v>
+        <v>26.279110956699999</v>
       </c>
       <c r="AI5">
-        <v>854.43588173900002</v>
+        <v>29.230735224099998</v>
       </c>
       <c r="AJ5">
-        <v>870.28485470299995</v>
+        <v>29.500590751800001</v>
       </c>
       <c r="AK5">
-        <v>30302.623190599999</v>
+        <v>174.07648660999999</v>
       </c>
       <c r="AL5">
-        <v>25508.924174200001</v>
+        <v>159.71513445599999</v>
       </c>
       <c r="AM5">
-        <v>950.00990665500001</v>
+        <v>30.8222307216</v>
       </c>
       <c r="AN5">
-        <v>914.24906023200003</v>
+        <v>30.236551725199998</v>
       </c>
       <c r="AO5">
-        <v>1197.28586322</v>
+        <v>34.601818784899997</v>
       </c>
       <c r="AP5">
-        <v>909.12675561100002</v>
+        <v>30.151728899199998</v>
       </c>
       <c r="AQ5">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="AR5">
-        <v>710.22236534800004</v>
+        <v>26.649997473700001</v>
       </c>
       <c r="AS5">
-        <v>1045.7136923400001</v>
+        <v>32.337496692499997</v>
       </c>
       <c r="AT5">
-        <v>30287.048655099999</v>
+        <v>174.031746113</v>
       </c>
       <c r="AU5">
-        <v>795.30946563199996</v>
+        <v>28.201231633199999</v>
       </c>
       <c r="AV5">
-        <v>677.73699534900004</v>
+        <v>26.0333823263</v>
       </c>
       <c r="AW5">
-        <v>13442.376422699999</v>
+        <v>115.94126281299999</v>
       </c>
       <c r="AX5">
-        <v>814.98457251800005</v>
+        <v>28.547934645400002</v>
       </c>
       <c r="AY5">
-        <v>2999.6552885999999</v>
+        <v>54.769108889999998</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -5823,154 +5220,154 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>842.97842528299998</v>
+        <v>29.0340907432</v>
       </c>
       <c r="C6">
-        <v>802.69876858299995</v>
+        <v>28.331939019099998</v>
       </c>
       <c r="D6">
-        <v>1206.8290410100001</v>
+        <v>34.739445030299997</v>
       </c>
       <c r="E6">
-        <v>909.84992983799998</v>
+        <v>30.163718766700001</v>
       </c>
       <c r="F6">
-        <v>949.55560336300005</v>
+        <v>30.814860106200001</v>
       </c>
       <c r="G6">
-        <v>723.23107005899999</v>
+        <v>26.8929557702</v>
       </c>
       <c r="H6">
-        <v>1196.5259730099999</v>
+        <v>34.590836546799999</v>
       </c>
       <c r="I6">
-        <v>681.52148148799995</v>
+        <v>26.105966396399999</v>
       </c>
       <c r="J6">
-        <v>760.65405022000004</v>
+        <v>27.579957400600001</v>
       </c>
       <c r="K6">
-        <v>8213.6658448100006</v>
+        <v>90.629276973900005</v>
       </c>
       <c r="L6">
-        <v>959.37503769499995</v>
+        <v>30.973779841900001</v>
       </c>
       <c r="M6">
-        <v>1005.38762285</v>
+        <v>31.707847969399999</v>
       </c>
       <c r="N6">
-        <v>806.23315851400002</v>
+        <v>28.394245165400001</v>
       </c>
       <c r="O6">
-        <v>750.43278837399998</v>
+        <v>27.394028334200001</v>
       </c>
       <c r="P6">
-        <v>851.99066049800001</v>
+        <v>29.188879055200001</v>
       </c>
       <c r="Q6">
-        <v>784.30663685800005</v>
+        <v>28.005475122899998</v>
       </c>
       <c r="R6">
-        <v>813.15071238600001</v>
+        <v>28.515797593399999</v>
       </c>
       <c r="S6">
-        <v>1231.3271351400001</v>
+        <v>35.090271232100001</v>
       </c>
       <c r="T6">
-        <v>8917.05804532</v>
+        <v>94.430175501899996</v>
       </c>
       <c r="U6">
-        <v>1026.4209029799999</v>
+        <v>32.037804278400003</v>
       </c>
       <c r="V6">
-        <v>6640.6086031499999</v>
+        <v>81.489929458500001</v>
       </c>
       <c r="W6">
-        <v>644.25789433299997</v>
+        <v>25.382235802499999</v>
       </c>
       <c r="X6">
-        <v>746.08624580799994</v>
+        <v>27.3145793636</v>
       </c>
       <c r="Y6">
-        <v>1050.0852673700001</v>
+        <v>32.405019169399999</v>
       </c>
       <c r="Z6">
-        <v>831.07028717100002</v>
+        <v>28.828289702500001</v>
       </c>
       <c r="AA6">
-        <v>897.27932707499997</v>
+        <v>29.9546211306</v>
       </c>
       <c r="AB6">
-        <v>2730.2397987499999</v>
+        <v>52.251696611200003</v>
       </c>
       <c r="AC6">
-        <v>1231.27740494</v>
+        <v>35.089562621100001</v>
       </c>
       <c r="AD6">
-        <v>676.31439007999995</v>
+        <v>26.006045260299999</v>
       </c>
       <c r="AE6">
-        <v>1432.2211129</v>
+        <v>37.844697289099997</v>
       </c>
       <c r="AF6">
-        <v>798.22064518100001</v>
+        <v>28.252798891099999</v>
       </c>
       <c r="AG6">
-        <v>843.35261791599999</v>
+        <v>29.0405340501</v>
       </c>
       <c r="AH6">
-        <v>871.38406463800004</v>
+        <v>29.519215176500001</v>
       </c>
       <c r="AI6">
-        <v>621.00394875799998</v>
+        <v>24.919950817699998</v>
       </c>
       <c r="AJ6">
-        <v>820.81684343200004</v>
+        <v>28.649901281399998</v>
       </c>
       <c r="AK6">
-        <v>562.94785354500004</v>
+        <v>23.726522154400001</v>
       </c>
       <c r="AL6">
-        <v>862.94119891100001</v>
+        <v>29.375860819900002</v>
       </c>
       <c r="AM6">
-        <v>709.59557634099997</v>
+        <v>26.6382352332</v>
       </c>
       <c r="AN6">
-        <v>23775.306643399999</v>
+        <v>154.19243380699999</v>
       </c>
       <c r="AO6">
-        <v>1231.3262727199999</v>
+        <v>35.090258943499997</v>
       </c>
       <c r="AP6">
-        <v>785.05231627700005</v>
+        <v>28.018785060700001</v>
       </c>
       <c r="AQ6">
-        <v>1052.1378557800001</v>
+        <v>32.436674548699997</v>
       </c>
       <c r="AR6">
-        <v>1231.31274474</v>
+        <v>35.090066183200001</v>
       </c>
       <c r="AS6">
-        <v>1007.90819163</v>
+        <v>31.7475698539</v>
       </c>
       <c r="AT6">
-        <v>830.93877328999997</v>
+        <v>28.826008625699998</v>
       </c>
       <c r="AU6">
-        <v>1231.2554927799999</v>
+        <v>35.0892503878</v>
       </c>
       <c r="AV6">
-        <v>605.06969011000001</v>
+        <v>24.598164364599999</v>
       </c>
       <c r="AW6">
-        <v>3549.5065927000001</v>
+        <v>59.577735713099997</v>
       </c>
       <c r="AX6">
-        <v>828.76138493300004</v>
+        <v>28.788216077600001</v>
       </c>
       <c r="AY6">
-        <v>1021.86822643</v>
+        <v>31.9666736842</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -5978,154 +5375,154 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1019.23632565</v>
+        <v>31.925480821000001</v>
       </c>
       <c r="C7">
-        <v>1395.4201463300001</v>
+        <v>37.355322864800002</v>
       </c>
       <c r="D7">
-        <v>710.333757838</v>
+        <v>26.6520873073</v>
       </c>
       <c r="E7">
-        <v>1027.6334433500001</v>
+        <v>32.056722280199999</v>
       </c>
       <c r="F7">
-        <v>761.85971698900005</v>
+        <v>27.6018064081</v>
       </c>
       <c r="G7">
-        <v>694.25388964499996</v>
+        <v>26.348698063600001</v>
       </c>
       <c r="H7">
-        <v>868.17401662600003</v>
+        <v>29.464792831899999</v>
       </c>
       <c r="I7">
-        <v>1044.3219336699999</v>
+        <v>32.315970257300002</v>
       </c>
       <c r="J7">
-        <v>1174.55461139</v>
+        <v>34.271775725700003</v>
       </c>
       <c r="K7">
-        <v>1231.00933504</v>
+        <v>35.085742617800001</v>
       </c>
       <c r="L7">
-        <v>720.06304643399994</v>
+        <v>26.833990505199999</v>
       </c>
       <c r="M7">
-        <v>835.84115595799994</v>
+        <v>28.910917591099999</v>
       </c>
       <c r="N7">
-        <v>1231.2719087200001</v>
+        <v>35.089484304000003</v>
       </c>
       <c r="O7">
-        <v>836.10655911399999</v>
+        <v>28.915507242899999</v>
       </c>
       <c r="P7">
-        <v>940.51141924000001</v>
+        <v>30.667758627600001</v>
       </c>
       <c r="Q7">
-        <v>1041.2686705900001</v>
+        <v>32.268694900600003</v>
       </c>
       <c r="R7">
-        <v>756.951273055</v>
+        <v>27.512747464699999</v>
       </c>
       <c r="S7">
-        <v>855.62141867299999</v>
+        <v>29.2510071395</v>
       </c>
       <c r="T7">
-        <v>1569.1728409</v>
+        <v>39.612786330900001</v>
       </c>
       <c r="U7">
-        <v>726.15135739799996</v>
+        <v>26.9471957242</v>
       </c>
       <c r="V7">
-        <v>765.79869374899999</v>
+        <v>27.673068021999999</v>
       </c>
       <c r="W7">
-        <v>936.91066145900004</v>
+        <v>30.6089964138</v>
       </c>
       <c r="X7">
-        <v>1053.18613615</v>
+        <v>32.452829401300001</v>
       </c>
       <c r="Y7">
-        <v>939.73318972000004</v>
+        <v>30.655067928800001</v>
       </c>
       <c r="Z7">
-        <v>942.19443700199997</v>
+        <v>30.6951858929</v>
       </c>
       <c r="AA7">
-        <v>685.32236983799999</v>
+        <v>26.178662491400001</v>
       </c>
       <c r="AB7">
-        <v>729.04944090200001</v>
+        <v>27.000915556700001</v>
       </c>
       <c r="AC7">
-        <v>819.55521960900001</v>
+        <v>28.627874870599999</v>
       </c>
       <c r="AD7">
-        <v>953.93757234899999</v>
+        <v>30.885879821500001</v>
       </c>
       <c r="AE7">
-        <v>1228.8571040100001</v>
+        <v>35.055058180099998</v>
       </c>
       <c r="AF7">
-        <v>817.52415315099995</v>
+        <v>28.592379284500002</v>
       </c>
       <c r="AG7">
-        <v>755.86956076000001</v>
+        <v>27.493082052799998</v>
       </c>
       <c r="AH7">
-        <v>1166.7229042399999</v>
+        <v>34.157325777099999</v>
       </c>
       <c r="AI7">
-        <v>1061.73857858</v>
+        <v>32.584330261300003</v>
       </c>
       <c r="AJ7">
-        <v>752.88427708300003</v>
+        <v>27.438736798200001</v>
       </c>
       <c r="AK7">
-        <v>1011.34057006</v>
+        <v>31.8015812509</v>
       </c>
       <c r="AL7">
-        <v>681.862352246</v>
+        <v>26.112494178999999</v>
       </c>
       <c r="AM7">
-        <v>925.64693301</v>
+        <v>30.424446305699998</v>
       </c>
       <c r="AN7">
-        <v>1043.7177781299999</v>
+        <v>32.306621273799998</v>
       </c>
       <c r="AO7">
-        <v>1347.98405327</v>
+        <v>36.714902332299999</v>
       </c>
       <c r="AP7">
-        <v>831.44029260100001</v>
+        <v>28.834706390099999</v>
       </c>
       <c r="AQ7">
-        <v>857.65333691000001</v>
+        <v>29.285718992500001</v>
       </c>
       <c r="AR7">
-        <v>17714.0340588</v>
+        <v>133.09407972899999</v>
       </c>
       <c r="AS7">
-        <v>883.34770936300004</v>
+        <v>29.721166016200002</v>
       </c>
       <c r="AT7">
-        <v>8784.7379528199999</v>
+        <v>93.726932910599999</v>
       </c>
       <c r="AU7">
-        <v>633.43892037700004</v>
+        <v>25.168212498599999</v>
       </c>
       <c r="AV7">
-        <v>729.40960492900001</v>
+        <v>27.007584211299999</v>
       </c>
       <c r="AW7">
-        <v>798.22479096999996</v>
+        <v>28.252872260499998</v>
       </c>
       <c r="AX7">
-        <v>807.34994690500002</v>
+        <v>28.413904112299999</v>
       </c>
       <c r="AY7">
-        <v>3046.3788098800001</v>
+        <v>55.194010634100003</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -6133,154 +5530,154 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2845.1780888500002</v>
+        <v>53.340210806199998</v>
       </c>
       <c r="C8">
-        <v>955.00684217599996</v>
+        <v>30.903184984300001</v>
       </c>
       <c r="D8">
-        <v>776.07823993199997</v>
+        <v>27.858180843900001</v>
       </c>
       <c r="E8">
-        <v>732.36900461499999</v>
+        <v>27.062317059200002</v>
       </c>
       <c r="F8">
-        <v>746.15403213599996</v>
+        <v>27.315820180500001</v>
       </c>
       <c r="G8">
-        <v>874.79642575900004</v>
+        <v>29.5769576826</v>
       </c>
       <c r="H8">
-        <v>1272.0213197200001</v>
+        <v>35.665407886600001</v>
       </c>
       <c r="I8">
-        <v>883.18738581800005</v>
+        <v>29.718468766400001</v>
       </c>
       <c r="J8">
-        <v>1022.75038318</v>
+        <v>31.9804687767</v>
       </c>
       <c r="K8">
-        <v>782.52138527800003</v>
+        <v>27.973583704599999</v>
       </c>
       <c r="L8">
-        <v>769.26894978600001</v>
+        <v>27.7356981125</v>
       </c>
       <c r="M8">
-        <v>813.93301741799996</v>
+        <v>28.529511342100001</v>
       </c>
       <c r="N8">
-        <v>711.48423427499995</v>
+        <v>26.6736618085</v>
       </c>
       <c r="O8">
-        <v>913.42482806700002</v>
+        <v>30.222918920400001</v>
       </c>
       <c r="P8">
-        <v>669.92921535300002</v>
+        <v>25.882990850199999</v>
       </c>
       <c r="Q8">
-        <v>1230.8193214299999</v>
+        <v>35.083034666800003</v>
       </c>
       <c r="R8">
-        <v>1232.43637169</v>
+        <v>35.106073145400003</v>
       </c>
       <c r="S8">
-        <v>723.72527120999996</v>
+        <v>26.9021425022</v>
       </c>
       <c r="T8">
-        <v>877.56111662399996</v>
+        <v>29.623658056099998</v>
       </c>
       <c r="U8">
-        <v>1306.6070789600001</v>
+        <v>36.147020333100002</v>
       </c>
       <c r="V8">
-        <v>1228.6565259500001</v>
+        <v>35.052197162900001</v>
       </c>
       <c r="W8">
-        <v>873.40305302199999</v>
+        <v>29.553393257300002</v>
       </c>
       <c r="X8">
-        <v>1126.0278425900001</v>
+        <v>33.556338337</v>
       </c>
       <c r="Y8">
-        <v>641.03029473900006</v>
+        <v>25.3185760804</v>
       </c>
       <c r="Z8">
-        <v>1228.1074064899999</v>
+        <v>35.044363405399999</v>
       </c>
       <c r="AA8">
-        <v>2696.53610243</v>
+        <v>51.928182159899997</v>
       </c>
       <c r="AB8">
-        <v>1075.34683341</v>
+        <v>32.792481354899998</v>
       </c>
       <c r="AC8">
-        <v>776.68423634099997</v>
+        <v>27.869055174900002</v>
       </c>
       <c r="AD8">
-        <v>968.92252361500005</v>
+        <v>31.127520357600002</v>
       </c>
       <c r="AE8">
-        <v>945.28621262599995</v>
+        <v>30.745507194200002</v>
       </c>
       <c r="AF8">
-        <v>694.21682886400004</v>
+        <v>26.3479947788</v>
       </c>
       <c r="AG8">
-        <v>2343.2280337000002</v>
+        <v>48.406900682699998</v>
       </c>
       <c r="AH8">
-        <v>840.63500142700002</v>
+        <v>28.993706238200001</v>
       </c>
       <c r="AI8">
-        <v>807.02175014399995</v>
+        <v>28.4081282408</v>
       </c>
       <c r="AJ8">
-        <v>1231.3274751599999</v>
+        <v>35.090276076999999</v>
       </c>
       <c r="AK8">
-        <v>925.511678039</v>
+        <v>30.4222234237</v>
       </c>
       <c r="AL8">
-        <v>924.90095584899996</v>
+        <v>30.412184332100001</v>
       </c>
       <c r="AM8">
-        <v>1202.9856783600001</v>
+        <v>34.684083934299998</v>
       </c>
       <c r="AN8">
-        <v>1191.7289968</v>
+        <v>34.521428081700002</v>
       </c>
       <c r="AO8">
-        <v>778.36403944699998</v>
+        <v>27.899176321999999</v>
       </c>
       <c r="AP8">
-        <v>962.60790399400003</v>
+        <v>31.0259230966</v>
       </c>
       <c r="AQ8">
-        <v>942.81150009700002</v>
+        <v>30.705235711499999</v>
       </c>
       <c r="AR8">
-        <v>1230.97403884</v>
+        <v>35.085239614999999</v>
       </c>
       <c r="AS8">
-        <v>1229.3304402599999</v>
+        <v>35.061808856100001</v>
       </c>
       <c r="AT8">
-        <v>28845.0000153</v>
+        <v>169.83815830200001</v>
       </c>
       <c r="AU8">
-        <v>758.00027757099997</v>
+        <v>27.531804836799999</v>
       </c>
       <c r="AV8">
-        <v>832.52082231400004</v>
+        <v>28.8534369238</v>
       </c>
       <c r="AW8">
-        <v>4576.5393460400001</v>
+        <v>67.650124508700003</v>
       </c>
       <c r="AX8">
-        <v>892.06757489500001</v>
+        <v>29.867500312099999</v>
       </c>
       <c r="AY8">
-        <v>2182.4438165199999</v>
+        <v>46.716633189</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -6288,154 +5685,154 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>694.40533698000002</v>
+        <v>26.351571812300001</v>
       </c>
       <c r="C9">
-        <v>817.28648453899996</v>
+        <v>28.588222829300001</v>
       </c>
       <c r="D9">
-        <v>1028.99205803</v>
+        <v>32.077906073000001</v>
       </c>
       <c r="E9">
-        <v>732.91843115300003</v>
+        <v>27.072466292400001</v>
       </c>
       <c r="F9">
-        <v>864.425054875</v>
+        <v>29.4011063546</v>
       </c>
       <c r="G9">
-        <v>1149.41824617</v>
+        <v>33.903071338300002</v>
       </c>
       <c r="H9">
-        <v>741.71482493099995</v>
+        <v>27.234441887599999</v>
       </c>
       <c r="I9">
-        <v>833.02446654799996</v>
+        <v>28.862163234000001</v>
       </c>
       <c r="J9">
-        <v>1234.5463423399999</v>
+        <v>35.136111656499999</v>
       </c>
       <c r="K9">
-        <v>917.63323078999997</v>
+        <v>30.292461616499999</v>
       </c>
       <c r="L9">
-        <v>609.20281293899995</v>
+        <v>24.682034214000002</v>
       </c>
       <c r="M9">
-        <v>1231.30256442</v>
+        <v>35.089921123000003</v>
       </c>
       <c r="N9">
-        <v>1220.43547177</v>
+        <v>34.934731597199999</v>
       </c>
       <c r="O9">
-        <v>770.78251917800003</v>
+        <v>27.762970287400002</v>
       </c>
       <c r="P9">
-        <v>781.80475113399996</v>
+        <v>27.9607716477</v>
       </c>
       <c r="Q9">
-        <v>900.01962293400004</v>
+        <v>30.000327047100001</v>
       </c>
       <c r="R9">
-        <v>803.74829753500001</v>
+        <v>28.3504549793</v>
       </c>
       <c r="S9">
-        <v>730.36578014700001</v>
+        <v>27.025280389799999</v>
       </c>
       <c r="T9">
-        <v>673.60187329099995</v>
+        <v>25.953841204900002</v>
       </c>
       <c r="U9">
-        <v>1181.74040941</v>
+        <v>34.376451379000002</v>
       </c>
       <c r="V9">
-        <v>847.38183739299996</v>
+        <v>29.109823726599998</v>
       </c>
       <c r="W9">
-        <v>651.49079882000001</v>
+        <v>25.524317793400002</v>
       </c>
       <c r="X9">
-        <v>940.13529225299999</v>
+        <v>30.661625727499999</v>
       </c>
       <c r="Y9">
-        <v>731.96903511699998</v>
+        <v>27.054926263399999</v>
       </c>
       <c r="Z9">
-        <v>869.23594866799999</v>
+        <v>29.482807679499999</v>
       </c>
       <c r="AA9">
-        <v>837.75169011900005</v>
+        <v>28.943940473200001</v>
       </c>
       <c r="AB9">
-        <v>1537.03281803</v>
+        <v>39.205010113900002</v>
       </c>
       <c r="AC9">
-        <v>1146.24768363</v>
+        <v>33.856279825599998</v>
       </c>
       <c r="AD9">
-        <v>728.93297445300004</v>
+        <v>26.998758757600001</v>
       </c>
       <c r="AE9">
-        <v>733.88570710700003</v>
+        <v>27.090324972299999</v>
       </c>
       <c r="AF9">
-        <v>752.04087709400005</v>
+        <v>27.4233637086</v>
       </c>
       <c r="AG9">
-        <v>777.57100026099999</v>
+        <v>27.884960108600001</v>
       </c>
       <c r="AH9">
-        <v>1229.7723289200001</v>
+        <v>35.068109856699998</v>
       </c>
       <c r="AI9">
-        <v>1224.76815302</v>
+        <v>34.996687743599999</v>
       </c>
       <c r="AJ9">
-        <v>768.90296405599997</v>
+        <v>27.729099589699999</v>
       </c>
       <c r="AK9">
-        <v>726.09095148200004</v>
+        <v>26.946074880800001</v>
       </c>
       <c r="AL9">
-        <v>887.45160595000004</v>
+        <v>29.790125980799999</v>
       </c>
       <c r="AM9">
-        <v>862.83618925899998</v>
+        <v>29.374073419599998</v>
       </c>
       <c r="AN9">
-        <v>808.80188089399996</v>
+        <v>28.439442345</v>
       </c>
       <c r="AO9">
-        <v>10672.6723884</v>
+        <v>103.308626883</v>
       </c>
       <c r="AP9">
-        <v>1230.7103055499999</v>
+        <v>35.081480948600003</v>
       </c>
       <c r="AQ9">
-        <v>755.73925159400005</v>
+        <v>27.490712096900001</v>
       </c>
       <c r="AR9">
-        <v>868.40408497199996</v>
+        <v>29.468696696199999</v>
       </c>
       <c r="AS9">
-        <v>772.52656041800003</v>
+        <v>27.7943620257</v>
       </c>
       <c r="AT9">
-        <v>600.15005646199995</v>
+        <v>24.497960250999999</v>
       </c>
       <c r="AU9">
-        <v>836.23861641300005</v>
+        <v>28.917790655800001</v>
       </c>
       <c r="AV9">
-        <v>689.89678657699994</v>
+        <v>26.265886365699998</v>
       </c>
       <c r="AW9">
-        <v>789.40532158200006</v>
+        <v>28.0963577992</v>
       </c>
       <c r="AX9">
-        <v>787.33570008699996</v>
+        <v>28.059502848200001</v>
       </c>
       <c r="AY9">
-        <v>1067.6234566200001</v>
+        <v>32.674507748700002</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -6443,154 +5840,154 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1083.6602703200001</v>
+        <v>32.918995584900003</v>
       </c>
       <c r="C10">
-        <v>29349.847575600001</v>
+        <v>171.31797213300001</v>
       </c>
       <c r="D10">
-        <v>725.35571071699997</v>
+        <v>26.9324286079</v>
       </c>
       <c r="E10">
-        <v>917.746819824</v>
+        <v>30.2943364315</v>
       </c>
       <c r="F10">
-        <v>1048.20539706</v>
+        <v>32.376000325200003</v>
       </c>
       <c r="G10">
-        <v>1016.26017846</v>
+        <v>31.8788359019</v>
       </c>
       <c r="H10">
-        <v>783.68480300600004</v>
+        <v>27.994370916400001</v>
       </c>
       <c r="I10">
-        <v>678.00783591699997</v>
+        <v>26.038583600399999</v>
       </c>
       <c r="J10">
-        <v>1045.3033210799999</v>
+        <v>32.331150939600001</v>
       </c>
       <c r="K10">
-        <v>719.557855045</v>
+        <v>26.824575580000001</v>
       </c>
       <c r="L10">
-        <v>922.91866509800002</v>
+        <v>30.379576447000002</v>
       </c>
       <c r="M10">
-        <v>1045.25180712</v>
+        <v>32.330354268400001</v>
       </c>
       <c r="N10">
-        <v>8994.7107190400002</v>
+        <v>94.840448749700002</v>
       </c>
       <c r="O10">
-        <v>1134.4886096</v>
+        <v>33.6821705001</v>
       </c>
       <c r="P10">
-        <v>888.01011171599998</v>
+        <v>29.799498514500002</v>
       </c>
       <c r="Q10">
-        <v>633.810380452</v>
+        <v>25.1755909653</v>
       </c>
       <c r="R10">
-        <v>960.98377349999998</v>
+        <v>30.999738281199999</v>
       </c>
       <c r="S10">
-        <v>9658.2791831100003</v>
+        <v>98.276544419900006</v>
       </c>
       <c r="T10">
-        <v>883.28128299000002</v>
+        <v>29.720048502499999</v>
       </c>
       <c r="U10">
-        <v>1669.6771156100001</v>
+        <v>40.861682731000002</v>
       </c>
       <c r="V10">
-        <v>806.57793697800003</v>
+        <v>28.400315790099999</v>
       </c>
       <c r="W10">
-        <v>930.53437855100003</v>
+        <v>30.504661587200001</v>
       </c>
       <c r="X10">
-        <v>1220.7900718999999</v>
+        <v>34.939806408999999</v>
       </c>
       <c r="Y10">
-        <v>755.97496231499997</v>
+        <v>27.494998860100001</v>
       </c>
       <c r="Z10">
-        <v>719.72858620500006</v>
+        <v>26.8277577558</v>
       </c>
       <c r="AA10">
-        <v>819.090011721</v>
+        <v>28.619748631299998</v>
       </c>
       <c r="AB10">
-        <v>793.34822377600005</v>
+        <v>28.1664378965</v>
       </c>
       <c r="AC10">
-        <v>852.38568099300005</v>
+        <v>29.195644897699999</v>
       </c>
       <c r="AD10">
-        <v>841.19931272300005</v>
+        <v>29.0034362227</v>
       </c>
       <c r="AE10">
-        <v>894.10792835300003</v>
+        <v>29.901637553</v>
       </c>
       <c r="AF10">
-        <v>687.62674218400002</v>
+        <v>26.222637971499999</v>
       </c>
       <c r="AG10">
-        <v>1223.7050780500001</v>
+        <v>34.981496223699999</v>
       </c>
       <c r="AH10">
-        <v>948.22642570599999</v>
+        <v>30.7932853997</v>
       </c>
       <c r="AI10">
-        <v>852.57220947200005</v>
+        <v>29.1988391802</v>
       </c>
       <c r="AJ10">
-        <v>819.30807352299996</v>
+        <v>28.623558016499999</v>
       </c>
       <c r="AK10">
-        <v>820.06149167800004</v>
+        <v>28.636715797699999</v>
       </c>
       <c r="AL10">
-        <v>966.077594965</v>
+        <v>31.0817887993</v>
       </c>
       <c r="AM10">
-        <v>952.09800305099998</v>
+        <v>30.856085348800001</v>
       </c>
       <c r="AN10">
-        <v>891.393817732</v>
+        <v>29.856219079599999</v>
       </c>
       <c r="AO10">
-        <v>805.68229072999998</v>
+        <v>28.3845431658</v>
       </c>
       <c r="AP10">
-        <v>10698.2536573</v>
+        <v>103.432362717</v>
       </c>
       <c r="AQ10">
-        <v>849.09793406100005</v>
+        <v>29.139285064300001</v>
       </c>
       <c r="AR10">
-        <v>838.80037595700003</v>
+        <v>28.962050617300001</v>
       </c>
       <c r="AS10">
-        <v>736.42561802900002</v>
+        <v>27.137163043099999</v>
       </c>
       <c r="AT10">
-        <v>981.91923025100004</v>
+        <v>31.3355904724</v>
       </c>
       <c r="AU10">
-        <v>912.02215642099998</v>
+        <v>30.1997045751</v>
       </c>
       <c r="AV10">
-        <v>769.83832017600002</v>
+        <v>27.745960429899998</v>
       </c>
       <c r="AW10">
-        <v>900.40056091400004</v>
+        <v>30.006675272599999</v>
       </c>
       <c r="AX10">
-        <v>870.58024015499996</v>
+        <v>29.505596759900001</v>
       </c>
       <c r="AY10">
-        <v>858.60160539200001</v>
+        <v>29.301904467</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -6598,154 +5995,154 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>853.32564926099997</v>
+        <v>29.2117382102</v>
       </c>
       <c r="C11">
-        <v>948.84205698599999</v>
+        <v>30.803279971199998</v>
       </c>
       <c r="D11">
-        <v>783.51424765399997</v>
+        <v>27.991324507000002</v>
       </c>
       <c r="E11">
-        <v>995.07653412100001</v>
+        <v>31.544833715199999</v>
       </c>
       <c r="F11">
-        <v>1049.92815548</v>
+        <v>32.402594888099998</v>
       </c>
       <c r="G11">
-        <v>876.40844287799996</v>
+        <v>29.604196372800001</v>
       </c>
       <c r="H11">
-        <v>868.62663957200004</v>
+        <v>29.472472573099999</v>
       </c>
       <c r="I11">
-        <v>1088.7839935500001</v>
+        <v>32.996727012699999</v>
       </c>
       <c r="J11">
-        <v>857.86001232599995</v>
+        <v>29.289247384100001</v>
       </c>
       <c r="K11">
-        <v>846.03819272700002</v>
+        <v>29.086735683600001</v>
       </c>
       <c r="L11">
-        <v>854.08120577700004</v>
+        <v>29.224667761599999</v>
       </c>
       <c r="M11">
-        <v>1004.17938721</v>
+        <v>31.688789614200001</v>
       </c>
       <c r="N11">
-        <v>822.97410111299996</v>
+        <v>28.687525182800002</v>
       </c>
       <c r="O11">
-        <v>1031.0927998499999</v>
+        <v>32.110633750399998</v>
       </c>
       <c r="P11">
-        <v>677.42676050499995</v>
+        <v>26.027423239800001</v>
       </c>
       <c r="Q11">
-        <v>787.41955846999997</v>
+        <v>28.060997103999998</v>
       </c>
       <c r="R11">
-        <v>973.47907605600005</v>
+        <v>31.2006262126</v>
       </c>
       <c r="S11">
-        <v>986.70476096799996</v>
+        <v>31.411857012399999</v>
       </c>
       <c r="T11">
-        <v>892.85096107200002</v>
+        <v>29.880611792100002</v>
       </c>
       <c r="U11">
-        <v>784.90259193300005</v>
+        <v>28.0161130768</v>
       </c>
       <c r="V11">
-        <v>741.56852683199998</v>
+        <v>27.231755852900001</v>
       </c>
       <c r="W11">
-        <v>1032.2932008299999</v>
+        <v>32.129319955900002</v>
       </c>
       <c r="X11">
-        <v>798.52628240299998</v>
+        <v>28.258207345900001</v>
       </c>
       <c r="Y11">
-        <v>804.60320055</v>
+        <v>28.365528384800001</v>
       </c>
       <c r="Z11">
-        <v>917.45311046500001</v>
+        <v>30.2894884484</v>
       </c>
       <c r="AA11">
-        <v>1226.5018986699999</v>
+        <v>35.021449122900002</v>
       </c>
       <c r="AB11">
-        <v>1014.10311079</v>
+        <v>31.8449856459</v>
       </c>
       <c r="AC11">
-        <v>738.57200228900001</v>
+        <v>27.176681222900001</v>
       </c>
       <c r="AD11">
-        <v>1185.5770128300001</v>
+        <v>34.432208944999999</v>
       </c>
       <c r="AE11">
-        <v>835.24931326700005</v>
+        <v>28.900680152300001</v>
       </c>
       <c r="AF11">
-        <v>2183.2160349000001</v>
+        <v>46.7248973771</v>
       </c>
       <c r="AG11">
-        <v>693.86916953399998</v>
+        <v>26.3413964993</v>
       </c>
       <c r="AH11">
-        <v>1188.65990564</v>
+        <v>34.476947452499999</v>
       </c>
       <c r="AI11">
-        <v>975.419695295</v>
+        <v>31.231709772199999</v>
       </c>
       <c r="AJ11">
-        <v>712.71945152599994</v>
+        <v>26.696806017299998</v>
       </c>
       <c r="AK11">
-        <v>803.99853131199995</v>
+        <v>28.354867859199999</v>
       </c>
       <c r="AL11">
-        <v>829.63760574699995</v>
+        <v>28.803430451000001</v>
       </c>
       <c r="AM11">
-        <v>1226.7011506700001</v>
+        <v>35.024293721200003</v>
       </c>
       <c r="AN11">
-        <v>910.11387512900001</v>
+        <v>30.1680936608</v>
       </c>
       <c r="AO11">
-        <v>821.250560071</v>
+        <v>28.6574695336</v>
       </c>
       <c r="AP11">
-        <v>902.06976044099997</v>
+        <v>30.0344761972</v>
       </c>
       <c r="AQ11">
-        <v>838.11940431899995</v>
+        <v>28.950291955699999</v>
       </c>
       <c r="AR11">
-        <v>606.17278142600003</v>
+        <v>24.620576382900001</v>
       </c>
       <c r="AS11">
-        <v>2329.5318102900001</v>
+        <v>48.265223611700002</v>
       </c>
       <c r="AT11">
-        <v>947.96261759900005</v>
+        <v>30.789001568700002</v>
       </c>
       <c r="AU11">
-        <v>855.13276110599998</v>
+        <v>29.242653113300001</v>
       </c>
       <c r="AV11">
-        <v>767.72057357599999</v>
+        <v>27.707770996200001</v>
       </c>
       <c r="AW11">
-        <v>727.64100276500005</v>
+        <v>26.9748216447</v>
       </c>
       <c r="AX11">
-        <v>1223.94547911</v>
+        <v>34.984932172400001</v>
       </c>
       <c r="AY11">
-        <v>850.28106801800004</v>
+        <v>29.159579352600002</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -6753,154 +6150,154 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>834.08971631300005</v>
+        <v>28.8806114255</v>
       </c>
       <c r="C12">
-        <v>800.42734567800005</v>
+        <v>28.291824714499999</v>
       </c>
       <c r="D12">
-        <v>1004.77127841</v>
+        <v>31.698127364400001</v>
       </c>
       <c r="E12">
-        <v>854.32897010900001</v>
+        <v>29.228906413200001</v>
       </c>
       <c r="F12">
-        <v>1229.3869285599999</v>
+        <v>35.062614400000001</v>
       </c>
       <c r="G12">
-        <v>1140.25540211</v>
+        <v>33.767667999300002</v>
       </c>
       <c r="H12">
-        <v>809.89299022900002</v>
+        <v>28.458618909399998</v>
       </c>
       <c r="I12">
-        <v>842.11853802500002</v>
+        <v>29.019278730300002</v>
       </c>
       <c r="J12">
-        <v>1039.4730451400001</v>
+        <v>32.240859869700003</v>
       </c>
       <c r="K12">
-        <v>1081.33960497</v>
+        <v>32.883728574599999</v>
       </c>
       <c r="L12">
-        <v>764.24354145400002</v>
+        <v>27.644955081399999</v>
       </c>
       <c r="M12">
-        <v>921.62325695000004</v>
+        <v>30.3582485817</v>
       </c>
       <c r="N12">
-        <v>1009.17601566</v>
+        <v>31.767530839799999</v>
       </c>
       <c r="O12">
-        <v>737.24517987700006</v>
+        <v>27.152259203900002</v>
       </c>
       <c r="P12">
-        <v>765.30990541200003</v>
+        <v>27.6642351315</v>
       </c>
       <c r="Q12">
-        <v>743.69925233399999</v>
+        <v>27.270849864500001</v>
       </c>
       <c r="R12">
-        <v>900.88074019400005</v>
+        <v>30.014675413799999</v>
       </c>
       <c r="S12">
-        <v>690.260985312</v>
+        <v>26.272818374</v>
       </c>
       <c r="T12">
-        <v>1123.6123574600001</v>
+        <v>33.520327526099997</v>
       </c>
       <c r="U12">
-        <v>887.13882981100005</v>
+        <v>29.784875856900001</v>
       </c>
       <c r="V12">
-        <v>604.10325207200003</v>
+        <v>24.578511998700002</v>
       </c>
       <c r="W12">
-        <v>864.37190289</v>
+        <v>29.4002024294</v>
       </c>
       <c r="X12">
-        <v>1030.78713206</v>
+        <v>32.105873793699999</v>
       </c>
       <c r="Y12">
-        <v>940.73308757300003</v>
+        <v>30.671372443599999</v>
       </c>
       <c r="Z12">
-        <v>813.00334193499998</v>
+        <v>28.513213462100001</v>
       </c>
       <c r="AA12">
-        <v>1033.01209404</v>
+        <v>32.1405055038</v>
       </c>
       <c r="AB12">
-        <v>989.15569069799994</v>
+        <v>31.450845627700001</v>
       </c>
       <c r="AC12">
-        <v>2348.9824488099998</v>
+        <v>48.466302198599998</v>
       </c>
       <c r="AD12">
-        <v>802.84304302800001</v>
+        <v>28.334485049600001</v>
       </c>
       <c r="AE12">
-        <v>713.579079288</v>
+        <v>26.7129009897</v>
       </c>
       <c r="AF12">
-        <v>879.22107414899995</v>
+        <v>29.651662249299999</v>
       </c>
       <c r="AG12">
-        <v>1044.2455383700001</v>
+        <v>32.314788230300003</v>
       </c>
       <c r="AH12">
-        <v>701.30578410700002</v>
+        <v>26.4821786133</v>
       </c>
       <c r="AI12">
-        <v>834.40476102499997</v>
+        <v>28.8860651703</v>
       </c>
       <c r="AJ12">
-        <v>924.76098954300005</v>
+        <v>30.409883089899999</v>
       </c>
       <c r="AK12">
-        <v>1216.5327616300001</v>
+        <v>34.878829705599998</v>
       </c>
       <c r="AL12">
-        <v>1157.5950997</v>
+        <v>34.023449262200003</v>
       </c>
       <c r="AM12">
-        <v>814.12083025699997</v>
+        <v>28.532802705999998</v>
       </c>
       <c r="AN12">
-        <v>639.57031897800005</v>
+        <v>25.289727538600001</v>
       </c>
       <c r="AO12">
-        <v>863.20354647500005</v>
+        <v>29.380325840200001</v>
       </c>
       <c r="AP12">
-        <v>913.95386619500005</v>
+        <v>30.2316699207</v>
       </c>
       <c r="AQ12">
-        <v>1102.9122171399999</v>
+        <v>33.210122208999998</v>
       </c>
       <c r="AR12">
-        <v>1025.40774818</v>
+        <v>32.021988510699998</v>
       </c>
       <c r="AS12">
-        <v>929.90423943600001</v>
+        <v>30.4943312672</v>
       </c>
       <c r="AT12">
-        <v>1230.4857904800001</v>
+        <v>35.078280894000002</v>
       </c>
       <c r="AU12">
-        <v>882.40682311</v>
+        <v>29.7053332435</v>
       </c>
       <c r="AV12">
-        <v>911.19477854499996</v>
+        <v>30.1860030237</v>
       </c>
       <c r="AW12">
-        <v>701.92830688900005</v>
+        <v>26.4939296234</v>
       </c>
       <c r="AX12">
-        <v>993.39252873700002</v>
+        <v>31.5181301593</v>
       </c>
       <c r="AY12">
-        <v>1038.3225276200001</v>
+        <v>32.223012392100003</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -6908,154 +6305,154 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1160.8558363499999</v>
+        <v>34.071334525499999</v>
       </c>
       <c r="C13">
-        <v>957.57163962000004</v>
+        <v>30.944654459500001</v>
       </c>
       <c r="D13">
-        <v>860.14131392399997</v>
+        <v>29.328165880699999</v>
       </c>
       <c r="E13">
-        <v>875.57332082000005</v>
+        <v>29.590088219199998</v>
       </c>
       <c r="F13">
-        <v>1002.63706383</v>
+        <v>31.664444789499999</v>
       </c>
       <c r="G13">
-        <v>811.32237459199996</v>
+        <v>28.483721220900001</v>
       </c>
       <c r="H13">
-        <v>868.41540516099997</v>
+        <v>29.468888766999999</v>
       </c>
       <c r="I13">
-        <v>857.81866207400003</v>
+        <v>29.288541480799999</v>
       </c>
       <c r="J13">
-        <v>871.94541648699999</v>
+        <v>29.528721890500002</v>
       </c>
       <c r="K13">
-        <v>1113.41063833</v>
+        <v>33.367808413600002</v>
       </c>
       <c r="L13">
-        <v>890.22388085499995</v>
+        <v>29.836619796099999</v>
       </c>
       <c r="M13">
-        <v>910.01935198000001</v>
+        <v>30.1665270122</v>
       </c>
       <c r="N13">
-        <v>854.14089017200001</v>
+        <v>29.225688874199999</v>
       </c>
       <c r="O13">
-        <v>1222.2503233899999</v>
+        <v>34.960696837900002</v>
       </c>
       <c r="P13">
-        <v>743.05942043899995</v>
+        <v>27.259116281299999</v>
       </c>
       <c r="Q13">
-        <v>839.65961640600005</v>
+        <v>28.976880722499999</v>
       </c>
       <c r="R13">
-        <v>1171.77748761</v>
+        <v>34.231235554800001</v>
       </c>
       <c r="S13">
-        <v>1224.4273377699999</v>
+        <v>34.991818154699999</v>
       </c>
       <c r="T13">
-        <v>869.65908430299999</v>
+        <v>29.489982779000002</v>
       </c>
       <c r="U13">
-        <v>990.15493639900001</v>
+        <v>31.4667274498</v>
       </c>
       <c r="V13">
-        <v>906.27469070899997</v>
+        <v>30.104396534500001</v>
       </c>
       <c r="W13">
-        <v>788.89197800299996</v>
+        <v>28.0872209021</v>
       </c>
       <c r="X13">
-        <v>720.02814333599997</v>
+        <v>26.833340145000001</v>
       </c>
       <c r="Y13">
-        <v>873.87472024600004</v>
+        <v>29.5613720968</v>
       </c>
       <c r="Z13">
-        <v>930.49628461299994</v>
+        <v>30.5040371855</v>
       </c>
       <c r="AA13">
-        <v>940.02605499599997</v>
+        <v>30.659844340700001</v>
       </c>
       <c r="AB13">
-        <v>741.00521981300005</v>
+        <v>27.221411054800001</v>
       </c>
       <c r="AC13">
-        <v>815.98651288799999</v>
+        <v>28.565477641499999</v>
       </c>
       <c r="AD13">
-        <v>789.34431599499999</v>
+        <v>28.0952721289</v>
       </c>
       <c r="AE13">
-        <v>1144.1881240600001</v>
+        <v>33.825849938499999</v>
       </c>
       <c r="AF13">
-        <v>1172.1381397099999</v>
+        <v>34.236503029799998</v>
       </c>
       <c r="AG13">
-        <v>833.99247197499994</v>
+        <v>28.878927819000001</v>
       </c>
       <c r="AH13">
-        <v>820.72764691899999</v>
+        <v>28.648344575500001</v>
       </c>
       <c r="AI13">
-        <v>1141.5562969299999</v>
+        <v>33.786924940399999</v>
       </c>
       <c r="AJ13">
-        <v>960.20881870799997</v>
+        <v>30.987236383799999</v>
       </c>
       <c r="AK13">
-        <v>748.53083782800002</v>
+        <v>27.3592916178</v>
       </c>
       <c r="AL13">
-        <v>966.20537043800005</v>
+        <v>31.083844203000002</v>
       </c>
       <c r="AM13">
-        <v>799.902868582</v>
+        <v>28.282554138199998</v>
       </c>
       <c r="AN13">
-        <v>1108.9870381400001</v>
+        <v>33.301456997300001</v>
       </c>
       <c r="AO13">
-        <v>1026.3635263799999</v>
+        <v>32.0369088144</v>
       </c>
       <c r="AP13">
-        <v>1194.56423559</v>
+        <v>34.562468598000002</v>
       </c>
       <c r="AQ13">
-        <v>829.06907097800001</v>
+        <v>28.793559539899999</v>
       </c>
       <c r="AR13">
-        <v>864.08125680199998</v>
+        <v>29.395259087199999</v>
       </c>
       <c r="AS13">
-        <v>908.62903302699999</v>
+        <v>30.1434741367</v>
       </c>
       <c r="AT13">
-        <v>843.62295238399997</v>
+        <v>29.0451881107</v>
       </c>
       <c r="AU13">
-        <v>758.50357429799999</v>
+        <v>27.5409435985</v>
       </c>
       <c r="AV13">
-        <v>1111.98821752</v>
+        <v>33.346487334099997</v>
       </c>
       <c r="AW13">
-        <v>958.89980829199999</v>
+        <v>30.966107412700001</v>
       </c>
       <c r="AX13">
-        <v>872.931009711</v>
+        <v>29.545405898599999</v>
       </c>
       <c r="AY13">
-        <v>739.11975496399998</v>
+        <v>27.1867569777</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -7107,40 +6504,40 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>6800.44261302</v>
+        <v>82.464796204300001</v>
       </c>
       <c r="C16">
-        <v>24649.7397581</v>
+        <v>157.0023559</v>
       </c>
       <c r="D16">
-        <v>583.41500067499999</v>
+        <v>24.1539851924</v>
       </c>
       <c r="E16">
-        <v>496.92304484099998</v>
+        <v>22.291770787499999</v>
       </c>
       <c r="F16">
-        <v>842.97842528299998</v>
+        <v>29.0340907432</v>
       </c>
       <c r="G16">
-        <v>1019.23632565</v>
+        <v>31.925480821000001</v>
       </c>
       <c r="H16">
-        <v>2845.1780888500002</v>
+        <v>53.340210806199998</v>
       </c>
       <c r="I16">
-        <v>694.40533698000002</v>
+        <v>26.351571812300001</v>
       </c>
       <c r="J16">
-        <v>1083.6602703200001</v>
+        <v>32.918995584900003</v>
       </c>
       <c r="K16">
-        <v>853.32564926099997</v>
+        <v>29.2117382102</v>
       </c>
       <c r="L16">
-        <v>834.08971631300005</v>
+        <v>28.8806114255</v>
       </c>
       <c r="M16">
-        <v>1160.8558363499999</v>
+        <v>34.071334525499999</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -7148,40 +6545,40 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>190288.65984000001</v>
+        <v>436.220884232</v>
       </c>
       <c r="C17">
-        <v>12839.169829300001</v>
+        <v>113.31006058299999</v>
       </c>
       <c r="D17">
-        <v>5636.6885153800004</v>
+        <v>75.077882997499998</v>
       </c>
       <c r="E17">
-        <v>1055.18700287</v>
+        <v>32.483642081399999</v>
       </c>
       <c r="F17">
-        <v>802.69876858299995</v>
+        <v>28.331939019099998</v>
       </c>
       <c r="G17">
-        <v>1395.4201463300001</v>
+        <v>37.355322864800002</v>
       </c>
       <c r="H17">
-        <v>955.00684217599996</v>
+        <v>30.903184984300001</v>
       </c>
       <c r="I17">
-        <v>817.28648453899996</v>
+        <v>28.588222829300001</v>
       </c>
       <c r="J17">
-        <v>29349.847575600001</v>
+        <v>171.31797213300001</v>
       </c>
       <c r="K17">
-        <v>948.84205698599999</v>
+        <v>30.803279971199998</v>
       </c>
       <c r="L17">
-        <v>800.42734567800005</v>
+        <v>28.291824714499999</v>
       </c>
       <c r="M17">
-        <v>957.57163962000004</v>
+        <v>30.944654459500001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -7189,40 +6586,40 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>1185.14643826</v>
+        <v>34.425955880099998</v>
       </c>
       <c r="C18">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="D18">
-        <v>2162.20958999</v>
+        <v>46.499565481700003</v>
       </c>
       <c r="E18">
-        <v>856.88068565900005</v>
+        <v>29.2725244156</v>
       </c>
       <c r="F18">
-        <v>1206.8290410100001</v>
+        <v>34.739445030299997</v>
       </c>
       <c r="G18">
-        <v>710.333757838</v>
+        <v>26.6520873073</v>
       </c>
       <c r="H18">
-        <v>776.07823993199997</v>
+        <v>27.858180843900001</v>
       </c>
       <c r="I18">
-        <v>1028.99205803</v>
+        <v>32.077906073000001</v>
       </c>
       <c r="J18">
-        <v>725.35571071699997</v>
+        <v>26.9324286079</v>
       </c>
       <c r="K18">
-        <v>783.51424765399997</v>
+        <v>27.991324507000002</v>
       </c>
       <c r="L18">
-        <v>1004.77127841</v>
+        <v>31.698127364400001</v>
       </c>
       <c r="M18">
-        <v>860.14131392399997</v>
+        <v>29.328165880699999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -7230,40 +6627,40 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>24234.931211499999</v>
+        <v>155.67572454099999</v>
       </c>
       <c r="C19">
-        <v>618.51668667499996</v>
+        <v>24.869995711200001</v>
       </c>
       <c r="D19">
-        <v>551.38551338699995</v>
+        <v>23.481599463999999</v>
       </c>
       <c r="E19">
-        <v>722.63959247900004</v>
+        <v>26.8819566341</v>
       </c>
       <c r="F19">
-        <v>909.84992983799998</v>
+        <v>30.163718766700001</v>
       </c>
       <c r="G19">
-        <v>1027.6334433500001</v>
+        <v>32.056722280199999</v>
       </c>
       <c r="H19">
-        <v>732.36900461499999</v>
+        <v>27.062317059200002</v>
       </c>
       <c r="I19">
-        <v>732.91843115300003</v>
+        <v>27.072466292400001</v>
       </c>
       <c r="J19">
-        <v>917.746819824</v>
+        <v>30.2943364315</v>
       </c>
       <c r="K19">
-        <v>995.07653412100001</v>
+        <v>31.544833715199999</v>
       </c>
       <c r="L19">
-        <v>854.32897010900001</v>
+        <v>29.228906413200001</v>
       </c>
       <c r="M19">
-        <v>875.57332082000005</v>
+        <v>29.590088219199998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -7271,40 +6668,40 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>948.96192933600003</v>
+        <v>30.805225682300001</v>
       </c>
       <c r="C20">
-        <v>38171.594752500001</v>
+        <v>195.375522399</v>
       </c>
       <c r="D20">
-        <v>2482.0708050399999</v>
+        <v>49.820385436499997</v>
       </c>
       <c r="E20">
-        <v>835.58019589800006</v>
+        <v>28.9064040638</v>
       </c>
       <c r="F20">
-        <v>949.55560336300005</v>
+        <v>30.814860106200001</v>
       </c>
       <c r="G20">
-        <v>761.85971698900005</v>
+        <v>27.6018064081</v>
       </c>
       <c r="H20">
-        <v>746.15403213599996</v>
+        <v>27.315820180500001</v>
       </c>
       <c r="I20">
-        <v>864.425054875</v>
+        <v>29.4011063546</v>
       </c>
       <c r="J20">
-        <v>1048.20539706</v>
+        <v>32.376000325200003</v>
       </c>
       <c r="K20">
-        <v>1049.92815548</v>
+        <v>32.402594888099998</v>
       </c>
       <c r="L20">
-        <v>1229.3869285599999</v>
+        <v>35.062614400000001</v>
       </c>
       <c r="M20">
-        <v>1002.63706383</v>
+        <v>31.664444789499999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -7312,40 +6709,40 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>121708.111661</v>
+        <v>348.86689676899999</v>
       </c>
       <c r="C21">
-        <v>493.42807171300001</v>
+        <v>22.213240909700001</v>
       </c>
       <c r="D21">
-        <v>12449.8306214</v>
+        <v>111.57880901599999</v>
       </c>
       <c r="E21">
-        <v>724.42135395900004</v>
+        <v>26.9150767036</v>
       </c>
       <c r="F21">
-        <v>723.23107005899999</v>
+        <v>26.8929557702</v>
       </c>
       <c r="G21">
-        <v>694.25388964499996</v>
+        <v>26.348698063600001</v>
       </c>
       <c r="H21">
-        <v>874.79642575900004</v>
+        <v>29.5769576826</v>
       </c>
       <c r="I21">
-        <v>1149.41824617</v>
+        <v>33.903071338300002</v>
       </c>
       <c r="J21">
-        <v>1016.26017846</v>
+        <v>31.8788359019</v>
       </c>
       <c r="K21">
-        <v>876.40844287799996</v>
+        <v>29.604196372800001</v>
       </c>
       <c r="L21">
-        <v>1140.25540211</v>
+        <v>33.767667999300002</v>
       </c>
       <c r="M21">
-        <v>811.32237459199996</v>
+        <v>28.483721220900001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -7353,40 +6750,40 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>726.10177308300001</v>
+        <v>26.946275681100001</v>
       </c>
       <c r="C22">
-        <v>564.88544892699997</v>
+        <v>23.7673189259</v>
       </c>
       <c r="D22">
-        <v>905.00263847199994</v>
+        <v>30.0832617658</v>
       </c>
       <c r="E22">
-        <v>825.99739515199997</v>
+        <v>28.740170409200001</v>
       </c>
       <c r="F22">
-        <v>1196.5259730099999</v>
+        <v>34.590836546799999</v>
       </c>
       <c r="G22">
-        <v>868.17401662600003</v>
+        <v>29.464792831899999</v>
       </c>
       <c r="H22">
-        <v>1272.0213197200001</v>
+        <v>35.665407886600001</v>
       </c>
       <c r="I22">
-        <v>741.71482493099995</v>
+        <v>27.234441887599999</v>
       </c>
       <c r="J22">
-        <v>783.68480300600004</v>
+        <v>27.994370916400001</v>
       </c>
       <c r="K22">
-        <v>868.62663957200004</v>
+        <v>29.472472573099999</v>
       </c>
       <c r="L22">
-        <v>809.89299022900002</v>
+        <v>28.458618909399998</v>
       </c>
       <c r="M22">
-        <v>868.41540516099997</v>
+        <v>29.468888766999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -7394,40 +6791,40 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>89605.422491100006</v>
+        <v>299.34164844100002</v>
       </c>
       <c r="C23">
-        <v>920.27511812199998</v>
+        <v>30.3360366251</v>
       </c>
       <c r="D23">
-        <v>2169.6048432600001</v>
+        <v>46.579017199399999</v>
       </c>
       <c r="E23">
-        <v>7338.2230231800004</v>
+        <v>85.663428738199997</v>
       </c>
       <c r="F23">
-        <v>681.52148148799995</v>
+        <v>26.105966396399999</v>
       </c>
       <c r="G23">
-        <v>1044.3219336699999</v>
+        <v>32.315970257300002</v>
       </c>
       <c r="H23">
-        <v>883.18738581800005</v>
+        <v>29.718468766400001</v>
       </c>
       <c r="I23">
-        <v>833.02446654799996</v>
+        <v>28.862163234000001</v>
       </c>
       <c r="J23">
-        <v>678.00783591699997</v>
+        <v>26.038583600399999</v>
       </c>
       <c r="K23">
-        <v>1088.7839935500001</v>
+        <v>32.996727012699999</v>
       </c>
       <c r="L23">
-        <v>842.11853802500002</v>
+        <v>29.019278730300002</v>
       </c>
       <c r="M23">
-        <v>857.81866207400003</v>
+        <v>29.288541480799999</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -7435,40 +6832,40 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>327839.38998099999</v>
+        <v>572.57260673300004</v>
       </c>
       <c r="C24">
-        <v>10686.205306399999</v>
+        <v>103.374103655</v>
       </c>
       <c r="D24">
-        <v>1229.61830095</v>
+        <v>35.065913662</v>
       </c>
       <c r="E24">
-        <v>897.90230405099999</v>
+        <v>29.965018005200001</v>
       </c>
       <c r="F24">
-        <v>760.65405022000004</v>
+        <v>27.579957400600001</v>
       </c>
       <c r="G24">
-        <v>1174.55461139</v>
+        <v>34.271775725700003</v>
       </c>
       <c r="H24">
-        <v>1022.75038318</v>
+        <v>31.9804687767</v>
       </c>
       <c r="I24">
-        <v>1234.5463423399999</v>
+        <v>35.136111656499999</v>
       </c>
       <c r="J24">
-        <v>1045.3033210799999</v>
+        <v>32.331150939600001</v>
       </c>
       <c r="K24">
-        <v>857.86001232599995</v>
+        <v>29.289247384100001</v>
       </c>
       <c r="L24">
-        <v>1039.4730451400001</v>
+        <v>32.240859869700003</v>
       </c>
       <c r="M24">
-        <v>871.94541648699999</v>
+        <v>29.528721890500002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -7476,40 +6873,40 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>18405.7688939</v>
+        <v>135.667862421</v>
       </c>
       <c r="C25">
-        <v>5325.6172241000004</v>
+        <v>72.976826623899996</v>
       </c>
       <c r="D25">
-        <v>40190.6520122</v>
+        <v>200.47606343999999</v>
       </c>
       <c r="E25">
-        <v>2664.1427137400001</v>
+        <v>51.615334095000001</v>
       </c>
       <c r="F25">
-        <v>8213.6658448100006</v>
+        <v>90.629276973900005</v>
       </c>
       <c r="G25">
-        <v>1231.00933504</v>
+        <v>35.085742617800001</v>
       </c>
       <c r="H25">
-        <v>782.52138527800003</v>
+        <v>27.973583704599999</v>
       </c>
       <c r="I25">
-        <v>917.63323078999997</v>
+        <v>30.292461616499999</v>
       </c>
       <c r="J25">
-        <v>719.557855045</v>
+        <v>26.824575580000001</v>
       </c>
       <c r="K25">
-        <v>846.03819272700002</v>
+        <v>29.086735683600001</v>
       </c>
       <c r="L25">
-        <v>1081.33960497</v>
+        <v>32.883728574599999</v>
       </c>
       <c r="M25">
-        <v>1113.41063833</v>
+        <v>33.367808413600002</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -7517,40 +6914,40 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>183591.752664</v>
+        <v>428.47608178799999</v>
       </c>
       <c r="C26">
-        <v>583.662225595</v>
+        <v>24.1591023342</v>
       </c>
       <c r="D26">
-        <v>819.83695653200004</v>
+        <v>28.632795122600001</v>
       </c>
       <c r="E26">
-        <v>834.53591662899998</v>
+        <v>28.8883353039</v>
       </c>
       <c r="F26">
-        <v>959.37503769499995</v>
+        <v>30.973779841900001</v>
       </c>
       <c r="G26">
-        <v>720.06304643399994</v>
+        <v>26.833990505199999</v>
       </c>
       <c r="H26">
-        <v>769.26894978600001</v>
+        <v>27.7356981125</v>
       </c>
       <c r="I26">
-        <v>609.20281293899995</v>
+        <v>24.682034214000002</v>
       </c>
       <c r="J26">
-        <v>922.91866509800002</v>
+        <v>30.379576447000002</v>
       </c>
       <c r="K26">
-        <v>854.08120577700004</v>
+        <v>29.224667761599999</v>
       </c>
       <c r="L26">
-        <v>764.24354145400002</v>
+        <v>27.644955081399999</v>
       </c>
       <c r="M26">
-        <v>890.22388085499995</v>
+        <v>29.836619796099999</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -7558,40 +6955,40 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>2024.68932589</v>
+        <v>44.996547933000002</v>
       </c>
       <c r="C27">
-        <v>14685.5910883</v>
+        <v>121.184120611</v>
       </c>
       <c r="D27">
-        <v>1180.7300541100001</v>
+        <v>34.361752779900002</v>
       </c>
       <c r="E27">
-        <v>725.36600886999997</v>
+        <v>26.932619792200001</v>
       </c>
       <c r="F27">
-        <v>1005.38762285</v>
+        <v>31.707847969399999</v>
       </c>
       <c r="G27">
-        <v>835.84115595799994</v>
+        <v>28.910917591099999</v>
       </c>
       <c r="H27">
-        <v>813.93301741799996</v>
+        <v>28.529511342100001</v>
       </c>
       <c r="I27">
-        <v>1231.30256442</v>
+        <v>35.089921123000003</v>
       </c>
       <c r="J27">
-        <v>1045.25180712</v>
+        <v>32.330354268400001</v>
       </c>
       <c r="K27">
-        <v>1004.17938721</v>
+        <v>31.688789614200001</v>
       </c>
       <c r="L27">
-        <v>921.62325695000004</v>
+        <v>30.3582485817</v>
       </c>
       <c r="M27">
-        <v>910.01935198000001</v>
+        <v>30.1665270122</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -7599,40 +6996,40 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>319409.49236700003</v>
+        <v>565.16324399899997</v>
       </c>
       <c r="C28">
-        <v>927.00214342200002</v>
+        <v>30.4467098949</v>
       </c>
       <c r="D28">
-        <v>827.05681222700002</v>
+        <v>28.7585954495</v>
       </c>
       <c r="E28">
-        <v>928.71479388399996</v>
+        <v>30.474822294500001</v>
       </c>
       <c r="F28">
-        <v>806.23315851400002</v>
+        <v>28.394245165400001</v>
       </c>
       <c r="G28">
-        <v>1231.2719087200001</v>
+        <v>35.089484304000003</v>
       </c>
       <c r="H28">
-        <v>711.48423427499995</v>
+        <v>26.6736618085</v>
       </c>
       <c r="I28">
-        <v>1220.43547177</v>
+        <v>34.934731597199999</v>
       </c>
       <c r="J28">
-        <v>8994.7107190400002</v>
+        <v>94.840448749700002</v>
       </c>
       <c r="K28">
-        <v>822.97410111299996</v>
+        <v>28.687525182800002</v>
       </c>
       <c r="L28">
-        <v>1009.17601566</v>
+        <v>31.767530839799999</v>
       </c>
       <c r="M28">
-        <v>854.14089017200001</v>
+        <v>29.225688874199999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -7640,40 +7037,40 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>3090.2280059999998</v>
+        <v>55.589819265800003</v>
       </c>
       <c r="C29">
-        <v>3809.2144142400002</v>
+        <v>61.718833545700001</v>
       </c>
       <c r="D29">
-        <v>576.40462438899999</v>
+        <v>24.008428194899999</v>
       </c>
       <c r="E29">
-        <v>1015.34572021</v>
+        <v>31.8644899568</v>
       </c>
       <c r="F29">
-        <v>750.43278837399998</v>
+        <v>27.394028334200001</v>
       </c>
       <c r="G29">
-        <v>836.10655911399999</v>
+        <v>28.915507242899999</v>
       </c>
       <c r="H29">
-        <v>913.42482806700002</v>
+        <v>30.222918920400001</v>
       </c>
       <c r="I29">
-        <v>770.78251917800003</v>
+        <v>27.762970287400002</v>
       </c>
       <c r="J29">
-        <v>1134.4886096</v>
+        <v>33.6821705001</v>
       </c>
       <c r="K29">
-        <v>1031.0927998499999</v>
+        <v>32.110633750399998</v>
       </c>
       <c r="L29">
-        <v>737.24517987700006</v>
+        <v>27.152259203900002</v>
       </c>
       <c r="M29">
-        <v>1222.2503233899999</v>
+        <v>34.960696837900002</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -7681,40 +7078,40 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>175575.71812599999</v>
+        <v>419.01756302799998</v>
       </c>
       <c r="C30">
-        <v>1210.87404838</v>
+        <v>34.797615555999997</v>
       </c>
       <c r="D30">
-        <v>589.57626460300003</v>
+        <v>24.281191581200002</v>
       </c>
       <c r="E30">
-        <v>693.23215689799997</v>
+        <v>26.329302248600001</v>
       </c>
       <c r="F30">
-        <v>851.99066049800001</v>
+        <v>29.188879055200001</v>
       </c>
       <c r="G30">
-        <v>940.51141924000001</v>
+        <v>30.667758627600001</v>
       </c>
       <c r="H30">
-        <v>669.92921535300002</v>
+        <v>25.882990850199999</v>
       </c>
       <c r="I30">
-        <v>781.80475113399996</v>
+        <v>27.9607716477</v>
       </c>
       <c r="J30">
-        <v>888.01011171599998</v>
+        <v>29.799498514500002</v>
       </c>
       <c r="K30">
-        <v>677.42676050499995</v>
+        <v>26.027423239800001</v>
       </c>
       <c r="L30">
-        <v>765.30990541200003</v>
+        <v>27.6642351315</v>
       </c>
       <c r="M30">
-        <v>743.05942043899995</v>
+        <v>27.259116281299999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -7722,40 +7119,40 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <v>225467.92221600001</v>
+        <v>474.83462617599997</v>
       </c>
       <c r="C31">
-        <v>12309.496836099999</v>
+        <v>110.948171847</v>
       </c>
       <c r="D31">
-        <v>873.05261599100004</v>
+        <v>29.5474637827</v>
       </c>
       <c r="E31">
-        <v>813.70488977100001</v>
+        <v>28.525512962499999</v>
       </c>
       <c r="F31">
-        <v>784.30663685800005</v>
+        <v>28.005475122899998</v>
       </c>
       <c r="G31">
-        <v>1041.2686705900001</v>
+        <v>32.268694900600003</v>
       </c>
       <c r="H31">
-        <v>1230.8193214299999</v>
+        <v>35.083034666800003</v>
       </c>
       <c r="I31">
-        <v>900.01962293400004</v>
+        <v>30.000327047100001</v>
       </c>
       <c r="J31">
-        <v>633.810380452</v>
+        <v>25.1755909653</v>
       </c>
       <c r="K31">
-        <v>787.41955846999997</v>
+        <v>28.060997103999998</v>
       </c>
       <c r="L31">
-        <v>743.69925233399999</v>
+        <v>27.270849864500001</v>
       </c>
       <c r="M31">
-        <v>839.65961640600005</v>
+        <v>28.976880722499999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7763,40 +7160,40 @@
         <v>17</v>
       </c>
       <c r="B32">
-        <v>16100.644075</v>
+        <v>126.88831338999999</v>
       </c>
       <c r="C32">
-        <v>908.51224971399995</v>
+        <v>30.141536950100001</v>
       </c>
       <c r="D32">
-        <v>590002.43706799997</v>
+        <v>768.11616118100005</v>
       </c>
       <c r="E32">
-        <v>1131.52130822</v>
+        <v>33.638093112100002</v>
       </c>
       <c r="F32">
-        <v>813.15071238600001</v>
+        <v>28.515797593399999</v>
       </c>
       <c r="G32">
-        <v>756.951273055</v>
+        <v>27.512747464699999</v>
       </c>
       <c r="H32">
-        <v>1232.43637169</v>
+        <v>35.106073145400003</v>
       </c>
       <c r="I32">
-        <v>803.74829753500001</v>
+        <v>28.3504549793</v>
       </c>
       <c r="J32">
-        <v>960.98377349999998</v>
+        <v>30.999738281199999</v>
       </c>
       <c r="K32">
-        <v>973.47907605600005</v>
+        <v>31.2006262126</v>
       </c>
       <c r="L32">
-        <v>900.88074019400005</v>
+        <v>30.014675413799999</v>
       </c>
       <c r="M32">
-        <v>1171.77748761</v>
+        <v>34.231235554800001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -7804,40 +7201,40 @@
         <v>18</v>
       </c>
       <c r="B33">
-        <v>120204.74738099999</v>
+        <v>346.70556295099999</v>
       </c>
       <c r="C33">
-        <v>974.68311705500003</v>
+        <v>31.219915391499999</v>
       </c>
       <c r="D33">
-        <v>831.66328127099996</v>
+        <v>28.8385728023</v>
       </c>
       <c r="E33">
-        <v>1118.6999965699999</v>
+        <v>33.446972905899997</v>
       </c>
       <c r="F33">
-        <v>1231.3271351400001</v>
+        <v>35.090271232100001</v>
       </c>
       <c r="G33">
-        <v>855.62141867299999</v>
+        <v>29.2510071395</v>
       </c>
       <c r="H33">
-        <v>723.72527120999996</v>
+        <v>26.9021425022</v>
       </c>
       <c r="I33">
-        <v>730.36578014700001</v>
+        <v>27.025280389799999</v>
       </c>
       <c r="J33">
-        <v>9658.2791831100003</v>
+        <v>98.276544419900006</v>
       </c>
       <c r="K33">
-        <v>986.70476096799996</v>
+        <v>31.411857012399999</v>
       </c>
       <c r="L33">
-        <v>690.260985312</v>
+        <v>26.272818374</v>
       </c>
       <c r="M33">
-        <v>1224.4273377699999</v>
+        <v>34.991818154699999</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -7845,40 +7242,40 @@
         <v>19</v>
       </c>
       <c r="B34">
-        <v>260221.15647399999</v>
+        <v>510.11876702799998</v>
       </c>
       <c r="C34">
-        <v>778.48604072399996</v>
+        <v>27.901362703699998</v>
       </c>
       <c r="D34">
-        <v>775.500378383</v>
+        <v>27.847807425100001</v>
       </c>
       <c r="E34">
-        <v>887.25526974499996</v>
+        <v>29.786830474999999</v>
       </c>
       <c r="F34">
-        <v>8917.05804532</v>
+        <v>94.430175501899996</v>
       </c>
       <c r="G34">
-        <v>1569.1728409</v>
+        <v>39.612786330900001</v>
       </c>
       <c r="H34">
-        <v>877.56111662399996</v>
+        <v>29.623658056099998</v>
       </c>
       <c r="I34">
-        <v>673.60187329099995</v>
+        <v>25.953841204900002</v>
       </c>
       <c r="J34">
-        <v>883.28128299000002</v>
+        <v>29.720048502499999</v>
       </c>
       <c r="K34">
-        <v>892.85096107200002</v>
+        <v>29.880611792100002</v>
       </c>
       <c r="L34">
-        <v>1123.6123574600001</v>
+        <v>33.520327526099997</v>
       </c>
       <c r="M34">
-        <v>869.65908430299999</v>
+        <v>29.489982779000002</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -7886,40 +7283,40 @@
         <v>20</v>
       </c>
       <c r="B35">
-        <v>435136.88289800001</v>
+        <v>659.64906040899996</v>
       </c>
       <c r="C35">
-        <v>858.44006601000001</v>
+        <v>29.299147871700001</v>
       </c>
       <c r="D35">
-        <v>91857.987355799996</v>
+        <v>303.08082644000001</v>
       </c>
       <c r="E35">
-        <v>4323.7931109900001</v>
+        <v>65.755555742400006</v>
       </c>
       <c r="F35">
-        <v>1026.4209029799999</v>
+        <v>32.037804278400003</v>
       </c>
       <c r="G35">
-        <v>726.15135739799996</v>
+        <v>26.9471957242</v>
       </c>
       <c r="H35">
-        <v>1306.6070789600001</v>
+        <v>36.147020333100002</v>
       </c>
       <c r="I35">
-        <v>1181.74040941</v>
+        <v>34.376451379000002</v>
       </c>
       <c r="J35">
-        <v>1669.6771156100001</v>
+        <v>40.861682731000002</v>
       </c>
       <c r="K35">
-        <v>784.90259193300005</v>
+        <v>28.0161130768</v>
       </c>
       <c r="L35">
-        <v>887.13882981100005</v>
+        <v>29.784875856900001</v>
       </c>
       <c r="M35">
-        <v>990.15493639900001</v>
+        <v>31.4667274498</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -7927,40 +7324,40 @@
         <v>21</v>
       </c>
       <c r="B36">
-        <v>37381.514981200002</v>
+        <v>193.34299827300001</v>
       </c>
       <c r="C36">
-        <v>34294.447029399998</v>
+        <v>185.18759955600001</v>
       </c>
       <c r="D36">
-        <v>93026.393594499998</v>
+        <v>305.002284573</v>
       </c>
       <c r="E36">
-        <v>709.07925213999999</v>
+        <v>26.628542058099999</v>
       </c>
       <c r="F36">
-        <v>6640.6086031499999</v>
+        <v>81.489929458500001</v>
       </c>
       <c r="G36">
-        <v>765.79869374899999</v>
+        <v>27.673068021999999</v>
       </c>
       <c r="H36">
-        <v>1228.6565259500001</v>
+        <v>35.052197162900001</v>
       </c>
       <c r="I36">
-        <v>847.38183739299996</v>
+        <v>29.109823726599998</v>
       </c>
       <c r="J36">
-        <v>806.57793697800003</v>
+        <v>28.400315790099999</v>
       </c>
       <c r="K36">
-        <v>741.56852683199998</v>
+        <v>27.231755852900001</v>
       </c>
       <c r="L36">
-        <v>604.10325207200003</v>
+        <v>24.578511998700002</v>
       </c>
       <c r="M36">
-        <v>906.27469070899997</v>
+        <v>30.104396534500001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -7968,40 +7365,40 @@
         <v>22</v>
       </c>
       <c r="B37">
-        <v>23397.464086</v>
+        <v>152.96229628899999</v>
       </c>
       <c r="C37">
-        <v>19120.632055800001</v>
+        <v>138.277373622</v>
       </c>
       <c r="D37">
-        <v>10729.2960955</v>
+        <v>103.582315554</v>
       </c>
       <c r="E37">
-        <v>813.89155593199996</v>
+        <v>28.528784690799998</v>
       </c>
       <c r="F37">
-        <v>644.25789433299997</v>
+        <v>25.382235802499999</v>
       </c>
       <c r="G37">
-        <v>936.91066145900004</v>
+        <v>30.6089964138</v>
       </c>
       <c r="H37">
-        <v>873.40305302199999</v>
+        <v>29.553393257300002</v>
       </c>
       <c r="I37">
-        <v>651.49079882000001</v>
+        <v>25.524317793400002</v>
       </c>
       <c r="J37">
-        <v>930.53437855100003</v>
+        <v>30.504661587200001</v>
       </c>
       <c r="K37">
-        <v>1032.2932008299999</v>
+        <v>32.129319955900002</v>
       </c>
       <c r="L37">
-        <v>864.37190289</v>
+        <v>29.4002024294</v>
       </c>
       <c r="M37">
-        <v>788.89197800299996</v>
+        <v>28.0872209021</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -8009,40 +7406,40 @@
         <v>23</v>
       </c>
       <c r="B38">
-        <v>501666.708094</v>
+        <v>708.28434127399998</v>
       </c>
       <c r="C38">
-        <v>630.89824579499998</v>
+        <v>25.117687907000001</v>
       </c>
       <c r="D38">
-        <v>761.83824608800001</v>
+        <v>27.601417465200001</v>
       </c>
       <c r="E38">
-        <v>632.31502369299994</v>
+        <v>25.145874884200001</v>
       </c>
       <c r="F38">
-        <v>746.08624580799994</v>
+        <v>27.3145793636</v>
       </c>
       <c r="G38">
-        <v>1053.18613615</v>
+        <v>32.452829401300001</v>
       </c>
       <c r="H38">
-        <v>1126.0278425900001</v>
+        <v>33.556338337</v>
       </c>
       <c r="I38">
-        <v>940.13529225299999</v>
+        <v>30.661625727499999</v>
       </c>
       <c r="J38">
-        <v>1220.7900718999999</v>
+        <v>34.939806408999999</v>
       </c>
       <c r="K38">
-        <v>798.52628240299998</v>
+        <v>28.258207345900001</v>
       </c>
       <c r="L38">
-        <v>1030.78713206</v>
+        <v>32.105873793699999</v>
       </c>
       <c r="M38">
-        <v>720.02814333599997</v>
+        <v>26.833340145000001</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -8050,40 +7447,40 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <v>410499.455793</v>
+        <v>640.70231449000005</v>
       </c>
       <c r="C39">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="D39">
-        <v>799.44308324799999</v>
+        <v>28.274424543199999</v>
       </c>
       <c r="E39">
-        <v>930.74809867399995</v>
+        <v>30.508164459300001</v>
       </c>
       <c r="F39">
-        <v>1050.0852673700001</v>
+        <v>32.405019169399999</v>
       </c>
       <c r="G39">
-        <v>939.73318972000004</v>
+        <v>30.655067928800001</v>
       </c>
       <c r="H39">
-        <v>641.03029473900006</v>
+        <v>25.3185760804</v>
       </c>
       <c r="I39">
-        <v>731.96903511699998</v>
+        <v>27.054926263399999</v>
       </c>
       <c r="J39">
-        <v>755.97496231499997</v>
+        <v>27.494998860100001</v>
       </c>
       <c r="K39">
-        <v>804.60320055</v>
+        <v>28.365528384800001</v>
       </c>
       <c r="L39">
-        <v>940.73308757300003</v>
+        <v>30.671372443599999</v>
       </c>
       <c r="M39">
-        <v>873.87472024600004</v>
+        <v>29.5613720968</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -8091,40 +7488,40 @@
         <v>25</v>
       </c>
       <c r="B40">
-        <v>419510.31238600001</v>
+        <v>647.69615745800002</v>
       </c>
       <c r="C40">
-        <v>786.36219634099996</v>
+        <v>28.0421503516</v>
       </c>
       <c r="D40">
-        <v>592.56019654700003</v>
+        <v>24.3425593672</v>
       </c>
       <c r="E40">
-        <v>921.97437445599996</v>
+        <v>30.3640309323</v>
       </c>
       <c r="F40">
-        <v>831.07028717100002</v>
+        <v>28.828289702500001</v>
       </c>
       <c r="G40">
-        <v>942.19443700199997</v>
+        <v>30.6951858929</v>
       </c>
       <c r="H40">
-        <v>1228.1074064899999</v>
+        <v>35.044363405399999</v>
       </c>
       <c r="I40">
-        <v>869.23594866799999</v>
+        <v>29.482807679499999</v>
       </c>
       <c r="J40">
-        <v>719.72858620500006</v>
+        <v>26.8277577558</v>
       </c>
       <c r="K40">
-        <v>917.45311046500001</v>
+        <v>30.2894884484</v>
       </c>
       <c r="L40">
-        <v>813.00334193499998</v>
+        <v>28.513213462100001</v>
       </c>
       <c r="M40">
-        <v>930.49628461299994</v>
+        <v>30.5040371855</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -8132,40 +7529,40 @@
         <v>26</v>
       </c>
       <c r="B41">
-        <v>86263.661361599996</v>
+        <v>293.70676083699999</v>
       </c>
       <c r="C41">
-        <v>675.59314070400001</v>
+        <v>25.992174605100001</v>
       </c>
       <c r="D41">
-        <v>7844.3083165799999</v>
+        <v>88.5680998813</v>
       </c>
       <c r="E41">
-        <v>664.67484042000001</v>
+        <v>25.781288571800001</v>
       </c>
       <c r="F41">
-        <v>897.27932707499997</v>
+        <v>29.9546211306</v>
       </c>
       <c r="G41">
-        <v>685.32236983799999</v>
+        <v>26.178662491400001</v>
       </c>
       <c r="H41">
-        <v>2696.53610243</v>
+        <v>51.928182159899997</v>
       </c>
       <c r="I41">
-        <v>837.75169011900005</v>
+        <v>28.943940473200001</v>
       </c>
       <c r="J41">
-        <v>819.090011721</v>
+        <v>28.619748631299998</v>
       </c>
       <c r="K41">
-        <v>1226.5018986699999</v>
+        <v>35.021449122900002</v>
       </c>
       <c r="L41">
-        <v>1033.01209404</v>
+        <v>32.1405055038</v>
       </c>
       <c r="M41">
-        <v>940.02605499599997</v>
+        <v>30.659844340700001</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -8173,40 +7570,40 @@
         <v>27</v>
       </c>
       <c r="B42">
-        <v>5671.0419582599998</v>
+        <v>75.306320838700003</v>
       </c>
       <c r="C42">
-        <v>882.59840938699995</v>
+        <v>29.708557847600002</v>
       </c>
       <c r="D42">
-        <v>704.83912801099996</v>
+        <v>26.548806527100002</v>
       </c>
       <c r="E42">
-        <v>2087.9900104799999</v>
+        <v>45.694529327700003</v>
       </c>
       <c r="F42">
-        <v>2730.2397987499999</v>
+        <v>52.251696611200003</v>
       </c>
       <c r="G42">
-        <v>729.04944090200001</v>
+        <v>27.000915556700001</v>
       </c>
       <c r="H42">
-        <v>1075.34683341</v>
+        <v>32.792481354899998</v>
       </c>
       <c r="I42">
-        <v>1537.03281803</v>
+        <v>39.205010113900002</v>
       </c>
       <c r="J42">
-        <v>793.34822377600005</v>
+        <v>28.1664378965</v>
       </c>
       <c r="K42">
-        <v>1014.10311079</v>
+        <v>31.8449856459</v>
       </c>
       <c r="L42">
-        <v>989.15569069799994</v>
+        <v>31.450845627700001</v>
       </c>
       <c r="M42">
-        <v>741.00521981300005</v>
+        <v>27.221411054800001</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -8214,40 +7611,40 @@
         <v>28</v>
       </c>
       <c r="B43">
-        <v>362444.77436799998</v>
+        <v>602.03386480200004</v>
       </c>
       <c r="C43">
-        <v>1096.54895943</v>
+        <v>33.114180639600001</v>
       </c>
       <c r="D43">
-        <v>611.40114711900003</v>
+        <v>24.726527194900001</v>
       </c>
       <c r="E43">
-        <v>746.47338900900002</v>
+        <v>27.3216651947</v>
       </c>
       <c r="F43">
-        <v>1231.27740494</v>
+        <v>35.089562621100001</v>
       </c>
       <c r="G43">
-        <v>819.55521960900001</v>
+        <v>28.627874870599999</v>
       </c>
       <c r="H43">
-        <v>776.68423634099997</v>
+        <v>27.869055174900002</v>
       </c>
       <c r="I43">
-        <v>1146.24768363</v>
+        <v>33.856279825599998</v>
       </c>
       <c r="J43">
-        <v>852.38568099300005</v>
+        <v>29.195644897699999</v>
       </c>
       <c r="K43">
-        <v>738.57200228900001</v>
+        <v>27.176681222900001</v>
       </c>
       <c r="L43">
-        <v>2348.9824488099998</v>
+        <v>48.466302198599998</v>
       </c>
       <c r="M43">
-        <v>815.98651288799999</v>
+        <v>28.565477641499999</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -8255,40 +7652,40 @@
         <v>29</v>
       </c>
       <c r="B44">
-        <v>7028.0858846900001</v>
+        <v>83.833679894699998</v>
       </c>
       <c r="C44">
-        <v>2274.6513468600001</v>
+        <v>47.6933050528</v>
       </c>
       <c r="D44">
-        <v>647.81215728500001</v>
+        <v>25.4521542759</v>
       </c>
       <c r="E44">
-        <v>2470.66312849</v>
+        <v>49.705765545799999</v>
       </c>
       <c r="F44">
-        <v>676.31439007999995</v>
+        <v>26.006045260299999</v>
       </c>
       <c r="G44">
-        <v>953.93757234899999</v>
+        <v>30.885879821500001</v>
       </c>
       <c r="H44">
-        <v>968.92252361500005</v>
+        <v>31.127520357600002</v>
       </c>
       <c r="I44">
-        <v>728.93297445300004</v>
+        <v>26.998758757600001</v>
       </c>
       <c r="J44">
-        <v>841.19931272300005</v>
+        <v>29.0034362227</v>
       </c>
       <c r="K44">
-        <v>1185.5770128300001</v>
+        <v>34.432208944999999</v>
       </c>
       <c r="L44">
-        <v>802.84304302800001</v>
+        <v>28.334485049600001</v>
       </c>
       <c r="M44">
-        <v>789.34431599499999</v>
+        <v>28.0952721289</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -8296,40 +7693,40 @@
         <v>30</v>
       </c>
       <c r="B45">
-        <v>20987.811318700002</v>
+        <v>144.87170641200001</v>
       </c>
       <c r="C45">
-        <v>3510.1109483300002</v>
+        <v>59.246189314799999</v>
       </c>
       <c r="D45">
-        <v>7212.1200598400001</v>
+        <v>84.924201849900001</v>
       </c>
       <c r="E45">
-        <v>922.80336360499996</v>
+        <v>30.377678706699999</v>
       </c>
       <c r="F45">
-        <v>1432.2211129</v>
+        <v>37.844697289099997</v>
       </c>
       <c r="G45">
-        <v>1228.8571040100001</v>
+        <v>35.055058180099998</v>
       </c>
       <c r="H45">
-        <v>945.28621262599995</v>
+        <v>30.745507194200002</v>
       </c>
       <c r="I45">
-        <v>733.88570710700003</v>
+        <v>27.090324972299999</v>
       </c>
       <c r="J45">
-        <v>894.10792835300003</v>
+        <v>29.901637553</v>
       </c>
       <c r="K45">
-        <v>835.24931326700005</v>
+        <v>28.900680152300001</v>
       </c>
       <c r="L45">
-        <v>713.579079288</v>
+        <v>26.7129009897</v>
       </c>
       <c r="M45">
-        <v>1144.1881240600001</v>
+        <v>33.825849938499999</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -8337,40 +7734,40 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <v>19446.139981200002</v>
+        <v>139.44941728500001</v>
       </c>
       <c r="C46">
-        <v>50100.872557000002</v>
+        <v>223.83224199599999</v>
       </c>
       <c r="D46">
-        <v>1179.38621059</v>
+        <v>34.342192862300003</v>
       </c>
       <c r="E46">
-        <v>951.95717959299998</v>
+        <v>30.853803324600001</v>
       </c>
       <c r="F46">
-        <v>798.22064518100001</v>
+        <v>28.252798891099999</v>
       </c>
       <c r="G46">
-        <v>817.52415315099995</v>
+        <v>28.592379284500002</v>
       </c>
       <c r="H46">
-        <v>694.21682886400004</v>
+        <v>26.3479947788</v>
       </c>
       <c r="I46">
-        <v>752.04087709400005</v>
+        <v>27.4233637086</v>
       </c>
       <c r="J46">
-        <v>687.62674218400002</v>
+        <v>26.222637971499999</v>
       </c>
       <c r="K46">
-        <v>2183.2160349000001</v>
+        <v>46.7248973771</v>
       </c>
       <c r="L46">
-        <v>879.22107414899995</v>
+        <v>29.651662249299999</v>
       </c>
       <c r="M46">
-        <v>1172.1381397099999</v>
+        <v>34.236503029799998</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -8378,40 +7775,40 @@
         <v>32</v>
       </c>
       <c r="B47">
-        <v>278886.15689400001</v>
+        <v>528.096730622</v>
       </c>
       <c r="C47">
-        <v>6490.0328515199999</v>
+        <v>80.560740137600007</v>
       </c>
       <c r="D47">
-        <v>3761.8342077699999</v>
+        <v>61.333793358699999</v>
       </c>
       <c r="E47">
-        <v>1084.82980243</v>
+        <v>32.936754582500001</v>
       </c>
       <c r="F47">
-        <v>843.35261791599999</v>
+        <v>29.0405340501</v>
       </c>
       <c r="G47">
-        <v>755.86956076000001</v>
+        <v>27.493082052799998</v>
       </c>
       <c r="H47">
-        <v>2343.2280337000002</v>
+        <v>48.406900682699998</v>
       </c>
       <c r="I47">
-        <v>777.57100026099999</v>
+        <v>27.884960108600001</v>
       </c>
       <c r="J47">
-        <v>1223.7050780500001</v>
+        <v>34.981496223699999</v>
       </c>
       <c r="K47">
-        <v>693.86916953399998</v>
+        <v>26.3413964993</v>
       </c>
       <c r="L47">
-        <v>1044.2455383700001</v>
+        <v>32.314788230300003</v>
       </c>
       <c r="M47">
-        <v>833.99247197499994</v>
+        <v>28.878927819000001</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -8419,40 +7816,40 @@
         <v>33</v>
       </c>
       <c r="B48">
-        <v>1593.85904706</v>
+        <v>39.923164291699997</v>
       </c>
       <c r="C48">
-        <v>540.55752425799994</v>
+        <v>23.249892994500001</v>
       </c>
       <c r="D48">
-        <v>974.05846903300005</v>
+        <v>31.209909788899999</v>
       </c>
       <c r="E48">
-        <v>690.59167267199996</v>
+        <v>26.279110956699999</v>
       </c>
       <c r="F48">
-        <v>871.38406463800004</v>
+        <v>29.519215176500001</v>
       </c>
       <c r="G48">
-        <v>1166.7229042399999</v>
+        <v>34.157325777099999</v>
       </c>
       <c r="H48">
-        <v>840.63500142700002</v>
+        <v>28.993706238200001</v>
       </c>
       <c r="I48">
-        <v>1229.7723289200001</v>
+        <v>35.068109856699998</v>
       </c>
       <c r="J48">
-        <v>948.22642570599999</v>
+        <v>30.7932853997</v>
       </c>
       <c r="K48">
-        <v>1188.65990564</v>
+        <v>34.476947452499999</v>
       </c>
       <c r="L48">
-        <v>701.30578410700002</v>
+        <v>26.4821786133</v>
       </c>
       <c r="M48">
-        <v>820.72764691899999</v>
+        <v>28.648344575500001</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -8460,40 +7857,40 @@
         <v>34</v>
       </c>
       <c r="B49">
-        <v>20082.014675300001</v>
+        <v>141.71102524299999</v>
       </c>
       <c r="C49">
-        <v>3008.0733968</v>
+        <v>54.8459059256</v>
       </c>
       <c r="D49">
-        <v>537678.87860900001</v>
+        <v>733.26589898099996</v>
       </c>
       <c r="E49">
-        <v>854.43588173900002</v>
+        <v>29.230735224099998</v>
       </c>
       <c r="F49">
-        <v>621.00394875799998</v>
+        <v>24.919950817699998</v>
       </c>
       <c r="G49">
-        <v>1061.73857858</v>
+        <v>32.584330261300003</v>
       </c>
       <c r="H49">
-        <v>807.02175014399995</v>
+        <v>28.4081282408</v>
       </c>
       <c r="I49">
-        <v>1224.76815302</v>
+        <v>34.996687743599999</v>
       </c>
       <c r="J49">
-        <v>852.57220947200005</v>
+        <v>29.1988391802</v>
       </c>
       <c r="K49">
-        <v>975.419695295</v>
+        <v>31.231709772199999</v>
       </c>
       <c r="L49">
-        <v>834.40476102499997</v>
+        <v>28.8860651703</v>
       </c>
       <c r="M49">
-        <v>1141.5562969299999</v>
+        <v>33.786924940399999</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -8501,40 +7898,40 @@
         <v>35</v>
       </c>
       <c r="B50">
-        <v>397490.00482999999</v>
+        <v>630.46808391100001</v>
       </c>
       <c r="C50">
-        <v>2145.79264298</v>
+        <v>46.322701162400001</v>
       </c>
       <c r="D50">
-        <v>932.791470473</v>
+        <v>30.5416350327</v>
       </c>
       <c r="E50">
-        <v>870.28485470299995</v>
+        <v>29.500590751800001</v>
       </c>
       <c r="F50">
-        <v>820.81684343200004</v>
+        <v>28.649901281399998</v>
       </c>
       <c r="G50">
-        <v>752.88427708300003</v>
+        <v>27.438736798200001</v>
       </c>
       <c r="H50">
-        <v>1231.3274751599999</v>
+        <v>35.090276076999999</v>
       </c>
       <c r="I50">
-        <v>768.90296405599997</v>
+        <v>27.729099589699999</v>
       </c>
       <c r="J50">
-        <v>819.30807352299996</v>
+        <v>28.623558016499999</v>
       </c>
       <c r="K50">
-        <v>712.71945152599994</v>
+        <v>26.696806017299998</v>
       </c>
       <c r="L50">
-        <v>924.76098954300005</v>
+        <v>30.409883089899999</v>
       </c>
       <c r="M50">
-        <v>960.20881870799997</v>
+        <v>30.987236383799999</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -8542,40 +7939,40 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>16072.190462</v>
+        <v>126.776143111</v>
       </c>
       <c r="C51">
-        <v>607.35836150800003</v>
+        <v>24.644641638900001</v>
       </c>
       <c r="D51">
-        <v>18704.621415500002</v>
+        <v>136.76483983599999</v>
       </c>
       <c r="E51">
-        <v>30302.623190599999</v>
+        <v>174.07648660999999</v>
       </c>
       <c r="F51">
-        <v>562.94785354500004</v>
+        <v>23.726522154400001</v>
       </c>
       <c r="G51">
-        <v>1011.34057006</v>
+        <v>31.8015812509</v>
       </c>
       <c r="H51">
-        <v>925.511678039</v>
+        <v>30.4222234237</v>
       </c>
       <c r="I51">
-        <v>726.09095148200004</v>
+        <v>26.946074880800001</v>
       </c>
       <c r="J51">
-        <v>820.06149167800004</v>
+        <v>28.636715797699999</v>
       </c>
       <c r="K51">
-        <v>803.99853131199995</v>
+        <v>28.354867859199999</v>
       </c>
       <c r="L51">
-        <v>1216.5327616300001</v>
+        <v>34.878829705599998</v>
       </c>
       <c r="M51">
-        <v>748.53083782800002</v>
+        <v>27.3592916178</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -8583,40 +7980,40 @@
         <v>37</v>
       </c>
       <c r="B52">
-        <v>319843.51557799999</v>
+        <v>565.54709404100004</v>
       </c>
       <c r="C52">
-        <v>476.989300872</v>
+        <v>21.840084726800001</v>
       </c>
       <c r="D52">
-        <v>661.15859413999999</v>
+        <v>25.713004377899999</v>
       </c>
       <c r="E52">
-        <v>25508.924174200001</v>
+        <v>159.71513445599999</v>
       </c>
       <c r="F52">
-        <v>862.94119891100001</v>
+        <v>29.375860819900002</v>
       </c>
       <c r="G52">
-        <v>681.862352246</v>
+        <v>26.112494178999999</v>
       </c>
       <c r="H52">
-        <v>924.90095584899996</v>
+        <v>30.412184332100001</v>
       </c>
       <c r="I52">
-        <v>887.45160595000004</v>
+        <v>29.790125980799999</v>
       </c>
       <c r="J52">
-        <v>966.077594965</v>
+        <v>31.0817887993</v>
       </c>
       <c r="K52">
-        <v>829.63760574699995</v>
+        <v>28.803430451000001</v>
       </c>
       <c r="L52">
-        <v>1157.5950997</v>
+        <v>34.023449262200003</v>
       </c>
       <c r="M52">
-        <v>966.20537043800005</v>
+        <v>31.083844203000002</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -8624,40 +8021,40 @@
         <v>38</v>
       </c>
       <c r="B53">
-        <v>48259.700667600002</v>
+        <v>219.68090647</v>
       </c>
       <c r="C53">
-        <v>12268.1271626</v>
+        <v>110.761578007</v>
       </c>
       <c r="D53">
-        <v>9052.0320130399996</v>
+        <v>95.142167376200007</v>
       </c>
       <c r="E53">
-        <v>950.00990665500001</v>
+        <v>30.8222307216</v>
       </c>
       <c r="F53">
-        <v>709.59557634099997</v>
+        <v>26.6382352332</v>
       </c>
       <c r="G53">
-        <v>925.64693301</v>
+        <v>30.424446305699998</v>
       </c>
       <c r="H53">
-        <v>1202.9856783600001</v>
+        <v>34.684083934299998</v>
       </c>
       <c r="I53">
-        <v>862.83618925899998</v>
+        <v>29.374073419599998</v>
       </c>
       <c r="J53">
-        <v>952.09800305099998</v>
+        <v>30.856085348800001</v>
       </c>
       <c r="K53">
-        <v>1226.7011506700001</v>
+        <v>35.024293721200003</v>
       </c>
       <c r="L53">
-        <v>814.12083025699997</v>
+        <v>28.532802705999998</v>
       </c>
       <c r="M53">
-        <v>799.902868582</v>
+        <v>28.282554138199998</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -8665,40 +8062,40 @@
         <v>39</v>
       </c>
       <c r="B54">
-        <v>1395.6783910199999</v>
+        <v>37.3587793031</v>
       </c>
       <c r="C54">
-        <v>7984.8875427200001</v>
+        <v>89.358197960300004</v>
       </c>
       <c r="D54">
-        <v>964.469509582</v>
+        <v>31.055909414799999</v>
       </c>
       <c r="E54">
-        <v>914.24906023200003</v>
+        <v>30.236551725199998</v>
       </c>
       <c r="F54">
-        <v>23775.306643399999</v>
+        <v>154.19243380699999</v>
       </c>
       <c r="G54">
-        <v>1043.7177781299999</v>
+        <v>32.306621273799998</v>
       </c>
       <c r="H54">
-        <v>1191.7289968</v>
+        <v>34.521428081700002</v>
       </c>
       <c r="I54">
-        <v>808.80188089399996</v>
+        <v>28.439442345</v>
       </c>
       <c r="J54">
-        <v>891.393817732</v>
+        <v>29.856219079599999</v>
       </c>
       <c r="K54">
-        <v>910.11387512900001</v>
+        <v>30.1680936608</v>
       </c>
       <c r="L54">
-        <v>639.57031897800005</v>
+        <v>25.289727538600001</v>
       </c>
       <c r="M54">
-        <v>1108.9870381400001</v>
+        <v>33.301456997300001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8706,40 +8103,40 @@
         <v>40</v>
       </c>
       <c r="B55">
-        <v>465140.80693000002</v>
+        <v>682.01232168499996</v>
       </c>
       <c r="C55">
-        <v>920.24900794899997</v>
+        <v>30.335606273</v>
       </c>
       <c r="D55">
-        <v>709.62417313399999</v>
+        <v>26.638771989999999</v>
       </c>
       <c r="E55">
-        <v>1197.28586322</v>
+        <v>34.601818784899997</v>
       </c>
       <c r="F55">
-        <v>1231.3262727199999</v>
+        <v>35.090258943499997</v>
       </c>
       <c r="G55">
-        <v>1347.98405327</v>
+        <v>36.714902332299999</v>
       </c>
       <c r="H55">
-        <v>778.36403944699998</v>
+        <v>27.899176321999999</v>
       </c>
       <c r="I55">
-        <v>10672.6723884</v>
+        <v>103.308626883</v>
       </c>
       <c r="J55">
-        <v>805.68229072999998</v>
+        <v>28.3845431658</v>
       </c>
       <c r="K55">
-        <v>821.250560071</v>
+        <v>28.6574695336</v>
       </c>
       <c r="L55">
-        <v>863.20354647500005</v>
+        <v>29.380325840200001</v>
       </c>
       <c r="M55">
-        <v>1026.3635263799999</v>
+        <v>32.0369088144</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -8747,40 +8144,40 @@
         <v>41</v>
       </c>
       <c r="B56">
-        <v>13620.2386307</v>
+        <v>116.705778052</v>
       </c>
       <c r="C56">
-        <v>2833.6209898299999</v>
+        <v>53.231766735900003</v>
       </c>
       <c r="D56">
-        <v>593.63847929899998</v>
+        <v>24.364697398099999</v>
       </c>
       <c r="E56">
-        <v>909.12675561100002</v>
+        <v>30.151728899199998</v>
       </c>
       <c r="F56">
-        <v>785.05231627700005</v>
+        <v>28.018785060700001</v>
       </c>
       <c r="G56">
-        <v>831.44029260100001</v>
+        <v>28.834706390099999</v>
       </c>
       <c r="H56">
-        <v>962.60790399400003</v>
+        <v>31.0259230966</v>
       </c>
       <c r="I56">
-        <v>1230.7103055499999</v>
+        <v>35.081480948600003</v>
       </c>
       <c r="J56">
-        <v>10698.2536573</v>
+        <v>103.432362717</v>
       </c>
       <c r="K56">
-        <v>902.06976044099997</v>
+        <v>30.0344761972</v>
       </c>
       <c r="L56">
-        <v>913.95386619500005</v>
+        <v>30.2316699207</v>
       </c>
       <c r="M56">
-        <v>1194.56423559</v>
+        <v>34.562468598000002</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -8788,40 +8185,40 @@
         <v>42</v>
       </c>
       <c r="B57">
-        <v>561.91159691200005</v>
+        <v>23.704674579300001</v>
       </c>
       <c r="C57">
-        <v>511.37584016</v>
+        <v>22.6136206778</v>
       </c>
       <c r="D57">
-        <v>873.85189580799999</v>
+        <v>29.5609860426</v>
       </c>
       <c r="E57">
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="F57">
-        <v>1052.1378557800001</v>
+        <v>32.436674548699997</v>
       </c>
       <c r="G57">
-        <v>857.65333691000001</v>
+        <v>29.285718992500001</v>
       </c>
       <c r="H57">
-        <v>942.81150009700002</v>
+        <v>30.705235711499999</v>
       </c>
       <c r="I57">
-        <v>755.73925159400005</v>
+        <v>27.490712096900001</v>
       </c>
       <c r="J57">
-        <v>849.09793406100005</v>
+        <v>29.139285064300001</v>
       </c>
       <c r="K57">
-        <v>838.11940431899995</v>
+        <v>28.950291955699999</v>
       </c>
       <c r="L57">
-        <v>1102.9122171399999</v>
+        <v>33.210122208999998</v>
       </c>
       <c r="M57">
-        <v>829.06907097800001</v>
+        <v>28.793559539899999</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -8829,40 +8226,40 @@
         <v>43</v>
       </c>
       <c r="B58">
-        <v>1340.49376542</v>
+        <v>36.612754136</v>
       </c>
       <c r="C58">
-        <v>726.23600284500003</v>
+        <v>26.948766258300001</v>
       </c>
       <c r="D58">
-        <v>697.95833434199994</v>
+        <v>26.4189010813</v>
       </c>
       <c r="E58">
-        <v>710.22236534800004</v>
+        <v>26.649997473700001</v>
       </c>
       <c r="F58">
-        <v>1231.31274474</v>
+        <v>35.090066183200001</v>
       </c>
       <c r="G58">
-        <v>17714.0340588</v>
+        <v>133.09407972899999</v>
       </c>
       <c r="H58">
-        <v>1230.97403884</v>
+        <v>35.085239614999999</v>
       </c>
       <c r="I58">
-        <v>868.40408497199996</v>
+        <v>29.468696696199999</v>
       </c>
       <c r="J58">
-        <v>838.80037595700003</v>
+        <v>28.962050617300001</v>
       </c>
       <c r="K58">
-        <v>606.17278142600003</v>
+        <v>24.620576382900001</v>
       </c>
       <c r="L58">
-        <v>1025.40774818</v>
+        <v>32.021988510699998</v>
       </c>
       <c r="M58">
-        <v>864.08125680199998</v>
+        <v>29.395259087199999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8870,40 +8267,40 @@
         <v>44</v>
       </c>
       <c r="B59">
-        <v>471128.86164900003</v>
+        <v>686.38827324600004</v>
       </c>
       <c r="C59">
-        <v>761.58642127600001</v>
+        <v>27.596855278700001</v>
       </c>
       <c r="D59">
-        <v>9159.7815225600007</v>
+        <v>95.706747528899996</v>
       </c>
       <c r="E59">
-        <v>1045.7136923400001</v>
+        <v>32.337496692499997</v>
       </c>
       <c r="F59">
-        <v>1007.90819163</v>
+        <v>31.7475698539</v>
       </c>
       <c r="G59">
-        <v>883.34770936300004</v>
+        <v>29.721166016200002</v>
       </c>
       <c r="H59">
-        <v>1229.3304402599999</v>
+        <v>35.061808856100001</v>
       </c>
       <c r="I59">
-        <v>772.52656041800003</v>
+        <v>27.7943620257</v>
       </c>
       <c r="J59">
-        <v>736.42561802900002</v>
+        <v>27.137163043099999</v>
       </c>
       <c r="K59">
-        <v>2329.5318102900001</v>
+        <v>48.265223611700002</v>
       </c>
       <c r="L59">
-        <v>929.90423943600001</v>
+        <v>30.4943312672</v>
       </c>
       <c r="M59">
-        <v>908.62903302699999</v>
+        <v>30.1434741367</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -8911,40 +8308,40 @@
         <v>45</v>
       </c>
       <c r="B60">
-        <v>2951.3148958400002</v>
+        <v>54.326005704799996</v>
       </c>
       <c r="C60">
-        <v>571.03008269700001</v>
+        <v>23.8962357433</v>
       </c>
       <c r="D60">
-        <v>36646.330800999996</v>
+        <v>191.432313889</v>
       </c>
       <c r="E60">
-        <v>30287.048655099999</v>
+        <v>174.031746113</v>
       </c>
       <c r="F60">
-        <v>830.93877328999997</v>
+        <v>28.826008625699998</v>
       </c>
       <c r="G60">
-        <v>8784.7379528199999</v>
+        <v>93.726932910599999</v>
       </c>
       <c r="H60">
-        <v>28845.0000153</v>
+        <v>169.83815830200001</v>
       </c>
       <c r="I60">
-        <v>600.15005646199995</v>
+        <v>24.497960250999999</v>
       </c>
       <c r="J60">
-        <v>981.91923025100004</v>
+        <v>31.3355904724</v>
       </c>
       <c r="K60">
-        <v>947.96261759900005</v>
+        <v>30.789001568700002</v>
       </c>
       <c r="L60">
-        <v>1230.4857904800001</v>
+        <v>35.078280894000002</v>
       </c>
       <c r="M60">
-        <v>843.62295238399997</v>
+        <v>29.0451881107</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -8952,40 +8349,40 @@
         <v>46</v>
       </c>
       <c r="B61">
-        <v>176992.02457800001</v>
+        <v>420.70420080899999</v>
       </c>
       <c r="C61">
-        <v>718.140265322</v>
+        <v>26.798139213799999</v>
       </c>
       <c r="D61">
-        <v>7134.0549463899997</v>
+        <v>84.463334923399998</v>
       </c>
       <c r="E61">
-        <v>795.30946563199996</v>
+        <v>28.201231633199999</v>
       </c>
       <c r="F61">
-        <v>1231.2554927799999</v>
+        <v>35.0892503878</v>
       </c>
       <c r="G61">
-        <v>633.43892037700004</v>
+        <v>25.168212498599999</v>
       </c>
       <c r="H61">
-        <v>758.00027757099997</v>
+        <v>27.531804836799999</v>
       </c>
       <c r="I61">
-        <v>836.23861641300005</v>
+        <v>28.917790655800001</v>
       </c>
       <c r="J61">
-        <v>912.02215642099998</v>
+        <v>30.1997045751</v>
       </c>
       <c r="K61">
-        <v>855.13276110599998</v>
+        <v>29.242653113300001</v>
       </c>
       <c r="L61">
-        <v>882.40682311</v>
+        <v>29.7053332435</v>
       </c>
       <c r="M61">
-        <v>758.50357429799999</v>
+        <v>27.5409435985</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -8993,40 +8390,40 @@
         <v>47</v>
       </c>
       <c r="B62">
-        <v>479244.16713299998</v>
+        <v>692.27463273800004</v>
       </c>
       <c r="C62">
-        <v>179387.08570699999</v>
+        <v>423.54112634699999</v>
       </c>
       <c r="D62">
-        <v>669.23661694700002</v>
+        <v>25.869607978200001</v>
       </c>
       <c r="E62">
-        <v>677.73699534900004</v>
+        <v>26.0333823263</v>
       </c>
       <c r="F62">
-        <v>605.06969011000001</v>
+        <v>24.598164364599999</v>
       </c>
       <c r="G62">
-        <v>729.40960492900001</v>
+        <v>27.007584211299999</v>
       </c>
       <c r="H62">
-        <v>832.52082231400004</v>
+        <v>28.8534369238</v>
       </c>
       <c r="I62">
-        <v>689.89678657699994</v>
+        <v>26.265886365699998</v>
       </c>
       <c r="J62">
-        <v>769.83832017600002</v>
+        <v>27.745960429899998</v>
       </c>
       <c r="K62">
-        <v>767.72057357599999</v>
+        <v>27.707770996200001</v>
       </c>
       <c r="L62">
-        <v>911.19477854499996</v>
+        <v>30.1860030237</v>
       </c>
       <c r="M62">
-        <v>1111.98821752</v>
+        <v>33.346487334099997</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -9034,40 +8431,40 @@
         <v>48</v>
       </c>
       <c r="B63">
-        <v>4216.9029422699996</v>
+        <v>64.937685070200004</v>
       </c>
       <c r="C63">
-        <v>508.86612587000002</v>
+        <v>22.558061216999999</v>
       </c>
       <c r="D63">
-        <v>571.01920109299999</v>
+        <v>23.896008057700001</v>
       </c>
       <c r="E63">
-        <v>13442.376422699999</v>
+        <v>115.94126281299999</v>
       </c>
       <c r="F63">
-        <v>3549.5065927000001</v>
+        <v>59.577735713099997</v>
       </c>
       <c r="G63">
-        <v>798.22479096999996</v>
+        <v>28.252872260499998</v>
       </c>
       <c r="H63">
-        <v>4576.5393460400001</v>
+        <v>67.650124508700003</v>
       </c>
       <c r="I63">
-        <v>789.40532158200006</v>
+        <v>28.0963577992</v>
       </c>
       <c r="J63">
-        <v>900.40056091400004</v>
+        <v>30.006675272599999</v>
       </c>
       <c r="K63">
-        <v>727.64100276500005</v>
+        <v>26.9748216447</v>
       </c>
       <c r="L63">
-        <v>701.92830688900005</v>
+        <v>26.4939296234</v>
       </c>
       <c r="M63">
-        <v>958.89980829199999</v>
+        <v>30.966107412700001</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -9075,40 +8472,40 @@
         <v>49</v>
       </c>
       <c r="B64">
-        <v>688.84738496700004</v>
+        <v>26.245902251</v>
       </c>
       <c r="C64">
-        <v>687.81708303200003</v>
+        <v>26.2262670434</v>
       </c>
       <c r="D64">
-        <v>645.07817890199999</v>
+        <v>25.398389297400001</v>
       </c>
       <c r="E64">
-        <v>814.98457251800005</v>
+        <v>28.547934645400002</v>
       </c>
       <c r="F64">
-        <v>828.76138493300004</v>
+        <v>28.788216077600001</v>
       </c>
       <c r="G64">
-        <v>807.34994690500002</v>
+        <v>28.413904112299999</v>
       </c>
       <c r="H64">
-        <v>892.06757489500001</v>
+        <v>29.867500312099999</v>
       </c>
       <c r="I64">
-        <v>787.33570008699996</v>
+        <v>28.059502848200001</v>
       </c>
       <c r="J64">
-        <v>870.58024015499996</v>
+        <v>29.505596759900001</v>
       </c>
       <c r="K64">
-        <v>1223.94547911</v>
+        <v>34.984932172400001</v>
       </c>
       <c r="L64">
-        <v>993.39252873700002</v>
+        <v>31.5181301593</v>
       </c>
       <c r="M64">
-        <v>872.931009711</v>
+        <v>29.545405898599999</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -9116,40 +8513,40 @@
         <v>50</v>
       </c>
       <c r="B65">
-        <v>507947.59491300001</v>
+        <v>712.70442324500004</v>
       </c>
       <c r="C65">
-        <v>314840.165003</v>
+        <v>561.10619761600003</v>
       </c>
       <c r="D65">
-        <v>781.41955037100001</v>
+        <v>27.953882563400001</v>
       </c>
       <c r="E65">
-        <v>2999.6552885999999</v>
+        <v>54.769108889999998</v>
       </c>
       <c r="F65">
-        <v>1021.86822643</v>
+        <v>31.9666736842</v>
       </c>
       <c r="G65">
-        <v>3046.3788098800001</v>
+        <v>55.194010634100003</v>
       </c>
       <c r="H65">
-        <v>2182.4438165199999</v>
+        <v>46.716633189</v>
       </c>
       <c r="I65">
-        <v>1067.6234566200001</v>
+        <v>32.674507748700002</v>
       </c>
       <c r="J65">
-        <v>858.60160539200001</v>
+        <v>29.301904467</v>
       </c>
       <c r="K65">
-        <v>850.28106801800004</v>
+        <v>29.159579352600002</v>
       </c>
       <c r="L65">
-        <v>1038.3225276200001</v>
+        <v>32.223012392100003</v>
       </c>
       <c r="M65">
-        <v>739.11975496399998</v>
+        <v>27.1867569777</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,104 +8555,104 @@
       </c>
       <c r="B66">
         <f>AVERAGE(B16:B65)</f>
-        <v>152486.38851083658</v>
+        <v>304.85591797830193</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:M66" si="0">AVERAGE(C16:C65)</f>
-        <v>15662.77510022406</v>
+        <v>76.157407359611994</v>
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>30240.319189515034</v>
+        <v>88.807717228493999</v>
       </c>
       <c r="E66">
         <f>AVERAGE(E16:E65)</f>
-        <v>3120.5874502405404</v>
+        <v>42.968831275373994</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>1871.0668030673603</v>
+        <v>36.934657658626001</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>1462.9121647096595</v>
+        <v>34.104942297165998</v>
       </c>
       <c r="H66">
         <f t="shared" si="0"/>
-        <v>1701.8293943422198</v>
+        <v>35.676217847513996</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>1081.0074168863</v>
+        <v>31.045838884986004</v>
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
-        <v>2003.5093986905395</v>
+        <v>36.868576228103997</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>953.44252049817965</v>
+        <v>30.591438789624011</v>
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>942.49428973936006</v>
+        <v>30.487394828413997</v>
       </c>
       <c r="M66">
         <f t="shared" si="0"/>
-        <v>928.10403948694045</v>
+        <v>30.378550565825993</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B67">
-        <f>_xlfn.STDEV.P(B16:B66)</f>
-        <v>173233.90870754214</v>
+        <f>_xlfn.STDEV.P(B16:B66)/SQRT(50)</f>
+        <v>34.170638062207068</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:M67" si="1">_xlfn.STDEV.P(C16:C66)</f>
-        <v>49736.131514251625</v>
+        <f t="shared" ref="C67:M67" si="1">_xlfn.STDEV.P(C16:C66)/SQRT(50)</f>
+        <v>13.906427068578262</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>109594.54546677106</v>
+        <v>20.93571324838862</v>
       </c>
       <c r="E67">
         <f t="shared" si="1"/>
-        <v>6730.253378863561</v>
+        <v>4.9985625170298418</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>3539.7100958378578</v>
+        <v>3.15264553303783</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>2565.5720850519488</v>
+        <v>2.4244064388553217</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>3897.6959308479231</v>
+        <v>2.9004288879655178</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>1371.5002383245794</v>
+        <v>1.5156911632127221</v>
       </c>
       <c r="J67">
         <f t="shared" si="1"/>
-        <v>4401.7323690225794</v>
+        <v>3.5541124636145653</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>300.32795081786742</v>
+        <v>0.58755714413476767</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>250.06284408592796</v>
+        <v>0.50513143921591941</v>
       </c>
       <c r="M67">
         <f t="shared" si="1"/>
-        <v>140.82318095766584</v>
+        <v>0.32077433905825675</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -9298,691 +8695,691 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70">
         <f>SMALL(B16:B65,COUNTIF(B16:B65,"&lt;"&amp;B75)+1)</f>
-        <v>561.91159691200005</v>
+        <v>23.704674579300001</v>
       </c>
       <c r="C70">
         <f t="shared" ref="C70:M70" si="2">SMALL(C16:C65,COUNTIF(C16:C65,"&lt;"&amp;C75)+1)</f>
-        <v>476.989300872</v>
+        <v>21.840084726800001</v>
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>551.38551338699995</v>
+        <v>23.481599463999999</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
-        <v>496.92304484099998</v>
+        <v>22.291770787499999</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>562.94785354500004</v>
+        <v>23.726522154400001</v>
       </c>
       <c r="G70">
         <f t="shared" si="2"/>
-        <v>633.43892037700004</v>
+        <v>25.168212498599999</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>641.03029473900006</v>
+        <v>25.3185760804</v>
       </c>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>600.15005646199995</v>
+        <v>24.497960250999999</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>633.810380452</v>
+        <v>25.1755909653</v>
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>606.17278142600003</v>
+        <v>24.620576382900001</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>604.10325207200003</v>
+        <v>24.578511998700002</v>
       </c>
       <c r="M70">
         <f t="shared" si="2"/>
-        <v>720.02814333599997</v>
+        <v>26.833340145000001</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71">
         <f>QUARTILE(B16:B65,1)</f>
-        <v>5953.3921219499998</v>
+        <v>77.095939680100003</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71:M71" si="3">QUARTILE(C16:C65,1)</f>
-        <v>695.39787860449997</v>
+        <v>26.369235086</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>699.67853275924995</v>
+        <v>26.451377442750001</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>799.90832166675</v>
+        <v>28.282301965525001</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>788.34439850300009</v>
+        <v>28.077288518300001</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
-        <v>762.84446117900006</v>
+        <v>27.619621811575001</v>
       </c>
       <c r="H71">
         <f t="shared" si="3"/>
-        <v>788.64647649450001</v>
+        <v>28.082219838649998</v>
       </c>
       <c r="I71">
         <f t="shared" si="3"/>
-        <v>744.29633797174995</v>
+        <v>27.281672342850001</v>
       </c>
       <c r="J71">
         <f t="shared" si="3"/>
-        <v>809.70595566375005</v>
+        <v>28.4551740004</v>
       </c>
       <c r="K71">
         <f t="shared" si="3"/>
-        <v>804.14969862149997</v>
+        <v>28.357532990599999</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>810.67057815550004</v>
+        <v>28.472267547575001</v>
       </c>
       <c r="M71">
         <f t="shared" si="3"/>
-        <v>830.29992122725002</v>
+        <v>28.814901609674997</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72">
         <f>MEDIAN(B16:B65)</f>
-        <v>42820.607824400002</v>
+        <v>206.5119523715</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:M72" si="4">MEDIAN(C16:C65)</f>
-        <v>1035.6160382425001</v>
+        <v>32.167048015550002</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>918.89705447250003</v>
+        <v>30.312448399250002</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>911.68790792150003</v>
+        <v>30.194140312199998</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>867.16263177450003</v>
+        <v>29.447537998200001</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>904.49732118650002</v>
+        <v>30.072806160950002</v>
       </c>
       <c r="H72">
         <f t="shared" si="4"/>
-        <v>934.16158906800001</v>
+        <v>30.563729567599999</v>
       </c>
       <c r="I72">
         <f t="shared" si="4"/>
-        <v>825.15547554349996</v>
+        <v>28.725193031650001</v>
       </c>
       <c r="J72">
         <f t="shared" si="4"/>
-        <v>889.70196472399994</v>
+        <v>29.827858797049998</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
-        <v>863.243325949</v>
+        <v>29.3808599786</v>
       </c>
       <c r="L72">
         <f t="shared" si="4"/>
-        <v>906.03775936950001</v>
+        <v>30.100339218750001</v>
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
-        <v>874.72402053300004</v>
+        <v>29.575730157999999</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73">
         <f>QUARTILE(B16:B65,3)</f>
-        <v>309278.65849875001</v>
+        <v>555.89661565475001</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73:M73" si="5">QUARTILE(C16:C65,3)</f>
-        <v>7611.1738699199996</v>
+        <v>87.158833504625008</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>7192.6037814775</v>
+        <v>84.808985118275004</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>1128.3159803075</v>
+        <v>33.590313060550002</v>
       </c>
       <c r="F73">
         <f t="shared" si="5"/>
-        <v>1204.25327401</v>
+        <v>34.702292909424997</v>
       </c>
       <c r="G73">
         <f t="shared" si="5"/>
-        <v>1050.97008553</v>
+        <v>32.418614615300001</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>1229.1619616825001</v>
+        <v>35.059405932800004</v>
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>1006.77786658575</v>
+        <v>31.723835986625001</v>
       </c>
       <c r="J73">
         <f t="shared" si="5"/>
-        <v>1007.67494140775</v>
+        <v>31.743024544524999</v>
       </c>
       <c r="K73">
         <f t="shared" si="5"/>
-        <v>1001.90367393775</v>
+        <v>31.65280063945</v>
       </c>
       <c r="L73">
         <f t="shared" si="5"/>
-        <v>1032.4558535450001</v>
+        <v>32.131847576275</v>
       </c>
       <c r="M73">
         <f t="shared" si="5"/>
-        <v>999.51653197225005</v>
+        <v>31.615015454575001</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74">
         <f>LARGE(B16:B65,COUNTIF(B16:B65,"&gt;"&amp;B77)+1)</f>
-        <v>507947.59491300001</v>
+        <v>712.70442324500004</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:M74" si="6">LARGE(C16:C65,COUNTIF(C16:C65,"&gt;"&amp;C77)+1)</f>
-        <v>14685.5910883</v>
+        <v>157.0023559</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>12449.8306214</v>
+        <v>136.76483983599999</v>
       </c>
       <c r="E74">
         <f t="shared" si="6"/>
-        <v>1231.3271922700001</v>
+        <v>35.090272046099997</v>
       </c>
       <c r="F74">
         <f t="shared" si="6"/>
-        <v>1432.2211129</v>
+        <v>37.844697289099997</v>
       </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>1395.4201463300001</v>
+        <v>39.612786330900001</v>
       </c>
       <c r="H74">
         <f t="shared" si="6"/>
-        <v>1306.6070789600001</v>
+        <v>36.147020333100002</v>
       </c>
       <c r="I74">
         <f t="shared" si="6"/>
-        <v>1234.5463423399999</v>
+        <v>35.136111656499999</v>
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
-        <v>1223.7050780500001</v>
+        <v>34.981496223699999</v>
       </c>
       <c r="K74">
         <f t="shared" si="6"/>
-        <v>1226.7011506700001</v>
+        <v>35.024293721200003</v>
       </c>
       <c r="L74">
         <f t="shared" si="6"/>
-        <v>1230.4857904800001</v>
+        <v>35.078280894000002</v>
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
-        <v>1224.4273377699999</v>
+        <v>34.991818154699999</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75">
         <f>B71-(1.5*B76)</f>
-        <v>-449034.50744325004</v>
+        <v>-641.10507428187498</v>
       </c>
       <c r="C75">
         <f t="shared" ref="C75:M75" si="7">C71-(1.5*C76)</f>
-        <v>-9678.266108368749</v>
+        <v>-64.815162541937497</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
-        <v>-9039.7093403181261</v>
+        <v>-61.085034070537503</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>307.29683370562498</v>
+        <v>20.320285322987498</v>
       </c>
       <c r="F75">
         <f t="shared" si="7"/>
-        <v>164.48108524250017</v>
+        <v>18.139781931612507</v>
       </c>
       <c r="G75">
         <f t="shared" si="7"/>
-        <v>330.65602465250015</v>
+        <v>20.421132605987502</v>
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
-        <v>127.87324871249996</v>
+        <v>17.616440697424988</v>
       </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>350.57404505074993</v>
+        <v>20.618426877187503</v>
       </c>
       <c r="J75">
         <f t="shared" si="7"/>
-        <v>512.75247704775006</v>
+        <v>23.5233981842125</v>
       </c>
       <c r="K75">
         <f t="shared" si="7"/>
-        <v>507.51873564712491</v>
+        <v>23.414631517324999</v>
       </c>
       <c r="L75">
         <f t="shared" si="7"/>
-        <v>477.99266507124997</v>
+        <v>22.982897504525003</v>
       </c>
       <c r="M75">
         <f t="shared" si="7"/>
-        <v>576.47500510974999</v>
+        <v>24.614730842324992</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76">
         <f>B73-B71</f>
-        <v>303325.26637680002</v>
+        <v>478.80067597465001</v>
       </c>
       <c r="C76">
         <f t="shared" ref="C76:M76" si="8">C73-C71</f>
-        <v>6915.7759913154996</v>
+        <v>60.789598418625005</v>
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>6492.9252487182503</v>
+        <v>58.357607675525003</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>328.40765864075001</v>
+        <v>5.3080110950250017</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>415.90887550699995</v>
+        <v>6.6250043911249961</v>
       </c>
       <c r="G76">
         <f t="shared" si="8"/>
-        <v>288.12562435099994</v>
+        <v>4.7989928037249996</v>
       </c>
       <c r="H76">
         <f t="shared" si="8"/>
-        <v>440.51548518800007</v>
+        <v>6.9771860941500066</v>
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
-        <v>262.48152861400001</v>
+        <v>4.4421636437750003</v>
       </c>
       <c r="J76">
         <f t="shared" si="8"/>
-        <v>197.96898574399995</v>
+        <v>3.2878505441249999</v>
       </c>
       <c r="K76">
         <f t="shared" si="8"/>
-        <v>197.75397531625003</v>
+        <v>3.2952676488500003</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
-        <v>221.78527538950004</v>
+        <v>3.6595800286999989</v>
       </c>
       <c r="M76">
         <f t="shared" si="8"/>
-        <v>169.21661074500003</v>
+        <v>2.8001138449000038</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77">
         <f>B73+(1.5*B76)</f>
-        <v>764266.55806395004</v>
+        <v>1274.097629616725</v>
       </c>
       <c r="C77">
         <f t="shared" ref="C77:M77" si="9">C73+(1.5*C76)</f>
-        <v>17984.837856893249</v>
+        <v>178.34323113256249</v>
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>16931.991654554877</v>
+        <v>172.34539663156249</v>
       </c>
       <c r="E77">
         <f t="shared" si="9"/>
-        <v>1620.927468268625</v>
+        <v>41.552329703087509</v>
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>1828.1165872705001</v>
+        <v>44.639799496112488</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
-        <v>1483.1585220564998</v>
+        <v>39.6171038208875</v>
       </c>
       <c r="H77">
         <f t="shared" si="9"/>
-        <v>1889.9351894645001</v>
+        <v>45.525185074025018</v>
       </c>
       <c r="I77">
         <f t="shared" si="9"/>
-        <v>1400.5001595067499</v>
+        <v>38.387081452287504</v>
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>1304.6284200237499</v>
+        <v>36.674800360712496</v>
       </c>
       <c r="K77">
         <f t="shared" si="9"/>
-        <v>1298.5346369121251</v>
+        <v>36.595702112725</v>
       </c>
       <c r="L77">
         <f t="shared" si="9"/>
-        <v>1365.1337666292502</v>
+        <v>37.621217619324995</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
-        <v>1253.34144808975</v>
+        <v>35.815186221925003</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79">
         <f>B71-B70</f>
-        <v>5391.4805250379995</v>
+        <v>53.391265100799998</v>
       </c>
       <c r="C79">
         <f t="shared" ref="C79:M79" si="10">C71-C70</f>
-        <v>218.40857773249996</v>
+        <v>4.5291503591999991</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="10"/>
-        <v>148.29301937225</v>
+        <v>2.9697779787500025</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="10"/>
-        <v>302.98527682575002</v>
+        <v>5.9905311780250017</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="10"/>
-        <v>225.39654495800005</v>
+        <v>4.3507663639</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" si="10"/>
-        <v>129.40554080200002</v>
+        <v>2.4514093129750023</v>
       </c>
       <c r="H79" s="2">
         <f t="shared" si="10"/>
-        <v>147.61618175549995</v>
+        <v>2.763643758249998</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="10"/>
-        <v>144.14628150975</v>
+        <v>2.7837120918500027</v>
       </c>
       <c r="J79" s="2">
         <f t="shared" si="10"/>
-        <v>175.89557521175004</v>
+        <v>3.2795830350999999</v>
       </c>
       <c r="K79" s="2">
         <f t="shared" si="10"/>
-        <v>197.97691719549994</v>
+        <v>3.736956607699998</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="10"/>
-        <v>206.56732608350001</v>
+        <v>3.8937555488749993</v>
       </c>
       <c r="M79" s="2">
         <f t="shared" si="10"/>
-        <v>110.27177789125005</v>
+        <v>1.9815614646749964</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <f>B71</f>
-        <v>5953.3921219499998</v>
+        <v>77.095939680100003</v>
       </c>
       <c r="C80">
         <f t="shared" ref="C80:M80" si="11">C71</f>
-        <v>695.39787860449997</v>
+        <v>26.369235086</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="11"/>
-        <v>699.67853275924995</v>
+        <v>26.451377442750001</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="11"/>
-        <v>799.90832166675</v>
+        <v>28.282301965525001</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="11"/>
-        <v>788.34439850300009</v>
+        <v>28.077288518300001</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" si="11"/>
-        <v>762.84446117900006</v>
+        <v>27.619621811575001</v>
       </c>
       <c r="H80" s="2">
         <f t="shared" si="11"/>
-        <v>788.64647649450001</v>
+        <v>28.082219838649998</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="11"/>
-        <v>744.29633797174995</v>
+        <v>27.281672342850001</v>
       </c>
       <c r="J80" s="2">
         <f t="shared" si="11"/>
-        <v>809.70595566375005</v>
+        <v>28.4551740004</v>
       </c>
       <c r="K80" s="2">
         <f t="shared" si="11"/>
-        <v>804.14969862149997</v>
+        <v>28.357532990599999</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="11"/>
-        <v>810.67057815550004</v>
+        <v>28.472267547575001</v>
       </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
-        <v>830.29992122725002</v>
+        <v>28.814901609674997</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81">
         <f>B72-B71</f>
-        <v>36867.215702450005</v>
+        <v>129.4160126914</v>
       </c>
       <c r="C81">
         <f t="shared" ref="C81:M83" si="12">C72-C71</f>
-        <v>340.21815963800009</v>
+        <v>5.7978129295500018</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="12"/>
-        <v>219.21852171325008</v>
+        <v>3.8610709565000008</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="12"/>
-        <v>111.77958625475003</v>
+        <v>1.9118383466749975</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="12"/>
-        <v>78.818233271499935</v>
+        <v>1.3702494799</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" si="12"/>
-        <v>141.65286000749995</v>
+        <v>2.4531843493750003</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" si="12"/>
-        <v>145.51511257350001</v>
+        <v>2.4815097289500017</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="12"/>
-        <v>80.859137571750011</v>
+        <v>1.4435206887999996</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="12"/>
-        <v>79.996009060249889</v>
+        <v>1.3726847966499989</v>
       </c>
       <c r="K81" s="2">
         <f t="shared" si="12"/>
-        <v>59.09362732750003</v>
+        <v>1.0233269880000009</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="12"/>
-        <v>95.36718121399997</v>
+        <v>1.6280716711750003</v>
       </c>
       <c r="M81" s="2">
         <f t="shared" si="12"/>
-        <v>44.424099305750019</v>
+        <v>0.76082854832500146</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <f>B73-B72</f>
-        <v>266458.05067435</v>
+        <v>349.38466328325001</v>
       </c>
       <c r="C82">
         <f t="shared" si="12"/>
-        <v>6575.5578316774991</v>
+        <v>54.991785489075006</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="12"/>
-        <v>6273.7067270050002</v>
+        <v>54.496536719025002</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="12"/>
-        <v>216.62807238599999</v>
+        <v>3.3961727483500042</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="12"/>
-        <v>337.09064223550001</v>
+        <v>5.2547549112249961</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" si="12"/>
-        <v>146.47276434349999</v>
+        <v>2.3458084543499993</v>
       </c>
       <c r="H82" s="2">
         <f t="shared" si="12"/>
-        <v>295.00037261450007</v>
+        <v>4.4956763652000049</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="12"/>
-        <v>181.62239104225</v>
+        <v>2.9986429549750007</v>
       </c>
       <c r="J82" s="2">
         <f t="shared" si="12"/>
-        <v>117.97297668375006</v>
+        <v>1.915165747475001</v>
       </c>
       <c r="K82" s="2">
         <f t="shared" si="12"/>
-        <v>138.66034798875</v>
+        <v>2.2719406608499995</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="12"/>
-        <v>126.41809417550007</v>
+        <v>2.0315083575249986</v>
       </c>
       <c r="M82" s="2">
         <f t="shared" si="12"/>
-        <v>124.79251143925001</v>
+        <v>2.0392852965750023</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <f>B74-B73</f>
-        <v>198668.93641425</v>
+        <v>156.80780759025004</v>
       </c>
       <c r="C83">
         <f t="shared" si="12"/>
-        <v>7074.4172183800001</v>
+        <v>69.84352239537499</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="12"/>
-        <v>5257.2268399225004</v>
+        <v>51.955854717724989</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="12"/>
-        <v>103.01121196250006</v>
+        <v>1.4999589855499948</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="12"/>
-        <v>227.96783888999994</v>
+        <v>3.1424043796749999</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" si="12"/>
-        <v>344.45006080000007</v>
+        <v>7.1941717155999996</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" si="12"/>
-        <v>77.445117277500003</v>
+        <v>1.0876144002999979</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="12"/>
-        <v>227.76847575424995</v>
+        <v>3.4122756698749974</v>
       </c>
       <c r="J83" s="2">
         <f t="shared" si="12"/>
-        <v>216.03013664225011</v>
+        <v>3.2384716791749995</v>
       </c>
       <c r="K83" s="2">
         <f t="shared" si="12"/>
-        <v>224.79747673225006</v>
+        <v>3.3714930817500033</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="12"/>
-        <v>198.02993693500002</v>
+        <v>2.9464333177250026</v>
       </c>
       <c r="M83" s="2">
         <f t="shared" si="12"/>
-        <v>224.91080579774984</v>
+        <v>3.3768027001249976</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -12240,7 +11637,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>-420998.44129233126</v>
@@ -12281,7 +11678,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>282195.5159718325</v>
@@ -12322,7 +11719,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>707783.6225949988</v>
